--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6477,28 +6477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2732.2223450362</v>
+        <v>3162.814784675185</v>
       </c>
       <c r="AB2" t="n">
-        <v>3738.347149621521</v>
+        <v>4327.502721933353</v>
       </c>
       <c r="AC2" t="n">
-        <v>3381.564544464679</v>
+        <v>3914.491935840087</v>
       </c>
       <c r="AD2" t="n">
-        <v>2732222.3450362</v>
+        <v>3162814.784675186</v>
       </c>
       <c r="AE2" t="n">
-        <v>3738347.149621521</v>
+        <v>4327502.721933354</v>
       </c>
       <c r="AF2" t="n">
         <v>1.854960455207867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.60648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>3381564.544464679</v>
+        <v>3914491.935840087</v>
       </c>
     </row>
     <row r="3">
@@ -6583,28 +6583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1676.594668566216</v>
+        <v>1979.970497109453</v>
       </c>
       <c r="AB3" t="n">
-        <v>2293.990791668806</v>
+        <v>2709.082984278623</v>
       </c>
       <c r="AC3" t="n">
-        <v>2075.055530148232</v>
+        <v>2450.531906480919</v>
       </c>
       <c r="AD3" t="n">
-        <v>1676594.668566216</v>
+        <v>1979970.497109453</v>
       </c>
       <c r="AE3" t="n">
-        <v>2293990.791668806</v>
+        <v>2709082.984278623</v>
       </c>
       <c r="AF3" t="n">
         <v>2.627374721810983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.7337962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>2075055.530148232</v>
+        <v>2450531.906480919</v>
       </c>
     </row>
     <row r="4">
@@ -6689,28 +6689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1447.50732686843</v>
+        <v>1721.517591600621</v>
       </c>
       <c r="AB4" t="n">
-        <v>1980.543384137668</v>
+        <v>2355.456316823971</v>
       </c>
       <c r="AC4" t="n">
-        <v>1791.523103265666</v>
+        <v>2130.654871849994</v>
       </c>
       <c r="AD4" t="n">
-        <v>1447507.32686843</v>
+        <v>1721517.591600622</v>
       </c>
       <c r="AE4" t="n">
-        <v>1980543.384137668</v>
+        <v>2355456.316823971</v>
       </c>
       <c r="AF4" t="n">
         <v>2.930183896200863e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.56481481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>1791523.103265666</v>
+        <v>2130654.871849994</v>
       </c>
     </row>
     <row r="5">
@@ -6795,28 +6795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1340.420649172232</v>
+        <v>1594.888036782508</v>
       </c>
       <c r="AB5" t="n">
-        <v>1834.022667382937</v>
+        <v>2182.196173420145</v>
       </c>
       <c r="AC5" t="n">
-        <v>1658.986118074889</v>
+        <v>1973.930433360491</v>
       </c>
       <c r="AD5" t="n">
-        <v>1340420.649172232</v>
+        <v>1594888.036782508</v>
       </c>
       <c r="AE5" t="n">
-        <v>1834022.667382937</v>
+        <v>2182196.173420145</v>
       </c>
       <c r="AF5" t="n">
         <v>3.097657846210492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.6712962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1658986.118074889</v>
+        <v>1973930.433360491</v>
       </c>
     </row>
     <row r="6">
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1286.915605381494</v>
+        <v>1531.527151913717</v>
       </c>
       <c r="AB6" t="n">
-        <v>1760.814705992512</v>
+        <v>2095.503015457707</v>
       </c>
       <c r="AC6" t="n">
-        <v>1592.765021771547</v>
+        <v>1895.511148719377</v>
       </c>
       <c r="AD6" t="n">
-        <v>1286915.605381494</v>
+        <v>1531527.151913717</v>
       </c>
       <c r="AE6" t="n">
-        <v>1760814.705992512</v>
+        <v>2095503.015457707</v>
       </c>
       <c r="AF6" t="n">
         <v>3.201261164273129e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.02777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1592765.021771547</v>
+        <v>1895511.148719377</v>
       </c>
     </row>
     <row r="7">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1238.618556723802</v>
+        <v>1483.26325764495</v>
       </c>
       <c r="AB7" t="n">
-        <v>1694.73255330365</v>
+        <v>2029.466226066439</v>
       </c>
       <c r="AC7" t="n">
-        <v>1532.989656988426</v>
+        <v>1835.776817824395</v>
       </c>
       <c r="AD7" t="n">
-        <v>1238618.556723802</v>
+        <v>1483263.25764495</v>
       </c>
       <c r="AE7" t="n">
-        <v>1694732.55330365</v>
+        <v>2029466.226066438</v>
       </c>
       <c r="AF7" t="n">
         <v>3.270691660147566e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.98611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1532989.656988426</v>
+        <v>1835776.817824395</v>
       </c>
     </row>
     <row r="8">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1216.048560939526</v>
+        <v>1450.871586201401</v>
       </c>
       <c r="AB8" t="n">
-        <v>1663.851289353663</v>
+        <v>1985.146512177686</v>
       </c>
       <c r="AC8" t="n">
-        <v>1505.0556575277</v>
+        <v>1795.686915226076</v>
       </c>
       <c r="AD8" t="n">
-        <v>1216048.560939526</v>
+        <v>1450871.586201401</v>
       </c>
       <c r="AE8" t="n">
-        <v>1663851.289353663</v>
+        <v>1985146.512177686</v>
       </c>
       <c r="AF8" t="n">
         <v>3.326290299422018e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>48</v>
+        <v>47.18750000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>1505055.6575277</v>
+        <v>1795686.915226076</v>
       </c>
     </row>
     <row r="9">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1190.240435820947</v>
+        <v>1425.130780890527</v>
       </c>
       <c r="AB9" t="n">
-        <v>1628.5394739923</v>
+        <v>1949.926806747166</v>
       </c>
       <c r="AC9" t="n">
-        <v>1473.113952263982</v>
+        <v>1763.828529050677</v>
       </c>
       <c r="AD9" t="n">
-        <v>1190240.435820947</v>
+        <v>1425130.780890527</v>
       </c>
       <c r="AE9" t="n">
-        <v>1628539.4739923</v>
+        <v>1949926.806747166</v>
       </c>
       <c r="AF9" t="n">
         <v>3.364666921165115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.64351851851851</v>
       </c>
       <c r="AH9" t="n">
-        <v>1473113.952263982</v>
+        <v>1763828.529050677</v>
       </c>
     </row>
     <row r="10">
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1178.26572389218</v>
+        <v>1413.054583735274</v>
       </c>
       <c r="AB10" t="n">
-        <v>1612.155144844355</v>
+        <v>1933.403621035131</v>
       </c>
       <c r="AC10" t="n">
-        <v>1458.293320494366</v>
+        <v>1748.882292992562</v>
       </c>
       <c r="AD10" t="n">
-        <v>1178265.72389218</v>
+        <v>1413054.583735274</v>
       </c>
       <c r="AE10" t="n">
-        <v>1612155.144844355</v>
+        <v>1933403.621035131</v>
       </c>
       <c r="AF10" t="n">
         <v>3.393144272988615e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>47</v>
+        <v>46.26157407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>1458293.320494366</v>
+        <v>1748882.292992562</v>
       </c>
     </row>
     <row r="11">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1157.550183185156</v>
+        <v>1392.406362835955</v>
       </c>
       <c r="AB11" t="n">
-        <v>1583.811228143849</v>
+        <v>1905.151814265467</v>
       </c>
       <c r="AC11" t="n">
-        <v>1432.654507422819</v>
+        <v>1723.326799009335</v>
       </c>
       <c r="AD11" t="n">
-        <v>1157550.183185156</v>
+        <v>1392406.362835955</v>
       </c>
       <c r="AE11" t="n">
-        <v>1583811.228143849</v>
+        <v>1905151.814265467</v>
       </c>
       <c r="AF11" t="n">
         <v>3.416197367321924e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.94907407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>1432654.507422819</v>
+        <v>1723326.799009335</v>
       </c>
     </row>
     <row r="12">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1147.11267565674</v>
+        <v>1381.968855307539</v>
       </c>
       <c r="AB12" t="n">
-        <v>1569.530169873137</v>
+        <v>1890.870755994754</v>
       </c>
       <c r="AC12" t="n">
-        <v>1419.736413309872</v>
+        <v>1710.408704896388</v>
       </c>
       <c r="AD12" t="n">
-        <v>1147112.67565674</v>
+        <v>1381968.855307539</v>
       </c>
       <c r="AE12" t="n">
-        <v>1569530.169873137</v>
+        <v>1890870.755994754</v>
       </c>
       <c r="AF12" t="n">
         <v>3.438843642343468e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>46</v>
+        <v>45.63657407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>1419736.413309872</v>
+        <v>1710408.704896388</v>
       </c>
     </row>
     <row r="13">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1140.344550673451</v>
+        <v>1365.379054664978</v>
       </c>
       <c r="AB13" t="n">
-        <v>1560.269722682399</v>
+        <v>1868.171858865252</v>
       </c>
       <c r="AC13" t="n">
-        <v>1411.3597702019</v>
+        <v>1689.876158650823</v>
       </c>
       <c r="AD13" t="n">
-        <v>1140344.550673451</v>
+        <v>1365379.054664978</v>
       </c>
       <c r="AE13" t="n">
-        <v>1560269.722682399</v>
+        <v>1868171.858865252</v>
       </c>
       <c r="AF13" t="n">
         <v>3.451048221696397e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>46</v>
+        <v>45.47453703703704</v>
       </c>
       <c r="AH13" t="n">
-        <v>1411359.7702019</v>
+        <v>1689876.158650823</v>
       </c>
     </row>
     <row r="14">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1130.981009652575</v>
+        <v>1356.015513644101</v>
       </c>
       <c r="AB14" t="n">
-        <v>1547.458112767361</v>
+        <v>1855.360248950213</v>
       </c>
       <c r="AC14" t="n">
-        <v>1399.770882355945</v>
+        <v>1678.287270804868</v>
       </c>
       <c r="AD14" t="n">
-        <v>1130981.009652575</v>
+        <v>1356015.513644101</v>
       </c>
       <c r="AE14" t="n">
-        <v>1547458.112767361</v>
+        <v>1855360.248950213</v>
       </c>
       <c r="AF14" t="n">
         <v>3.470304335786573e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>46</v>
+        <v>45.23148148148147</v>
       </c>
       <c r="AH14" t="n">
-        <v>1399770.882355945</v>
+        <v>1678287.270804868</v>
       </c>
     </row>
     <row r="15">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1124.729755582578</v>
+        <v>1349.764259574104</v>
       </c>
       <c r="AB15" t="n">
-        <v>1538.904871162926</v>
+        <v>1846.807007345778</v>
       </c>
       <c r="AC15" t="n">
-        <v>1392.033950125688</v>
+        <v>1670.550338574611</v>
       </c>
       <c r="AD15" t="n">
-        <v>1124729.755582578</v>
+        <v>1349764.259574105</v>
       </c>
       <c r="AE15" t="n">
-        <v>1538904.871162926</v>
+        <v>1846807.007345778</v>
       </c>
       <c r="AF15" t="n">
         <v>3.4810172443297e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>46</v>
+        <v>45.09259259259259</v>
       </c>
       <c r="AH15" t="n">
-        <v>1392033.950125688</v>
+        <v>1670550.338574611</v>
       </c>
     </row>
     <row r="16">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1107.821895404725</v>
+        <v>1342.643909636742</v>
       </c>
       <c r="AB16" t="n">
-        <v>1515.77079094544</v>
+        <v>1837.06463043381</v>
       </c>
       <c r="AC16" t="n">
-        <v>1371.107754055273</v>
+        <v>1661.737760441609</v>
       </c>
       <c r="AD16" t="n">
-        <v>1107821.895404724</v>
+        <v>1342643.909636742</v>
       </c>
       <c r="AE16" t="n">
-        <v>1515770.790945441</v>
+        <v>1837064.63043381</v>
       </c>
       <c r="AF16" t="n">
         <v>3.493357430119882e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.93055555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>1371107.754055273</v>
+        <v>1661737.760441609</v>
       </c>
     </row>
     <row r="17">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1102.230981310384</v>
+        <v>1327.332805109615</v>
       </c>
       <c r="AB17" t="n">
-        <v>1508.121055627842</v>
+        <v>1816.115301741536</v>
       </c>
       <c r="AC17" t="n">
-        <v>1364.188098739916</v>
+        <v>1642.787806277158</v>
       </c>
       <c r="AD17" t="n">
-        <v>1102230.981310384</v>
+        <v>1327332.805109615</v>
       </c>
       <c r="AE17" t="n">
-        <v>1508121.055627842</v>
+        <v>1816115.301741536</v>
       </c>
       <c r="AF17" t="n">
         <v>3.499730932670856e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.84953703703704</v>
       </c>
       <c r="AH17" t="n">
-        <v>1364188.098739916</v>
+        <v>1642787.806277158</v>
       </c>
     </row>
     <row r="18">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1094.580421530565</v>
+        <v>1319.682245329797</v>
       </c>
       <c r="AB18" t="n">
-        <v>1497.653222218218</v>
+        <v>1805.647468331912</v>
       </c>
       <c r="AC18" t="n">
-        <v>1354.719300659209</v>
+        <v>1633.319008196452</v>
       </c>
       <c r="AD18" t="n">
-        <v>1094580.421530565</v>
+        <v>1319682.245329797</v>
       </c>
       <c r="AE18" t="n">
-        <v>1497653.222218218</v>
+        <v>1805647.468331912</v>
       </c>
       <c r="AF18" t="n">
         <v>3.512749150647313e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>44.67592592592593</v>
       </c>
       <c r="AH18" t="n">
-        <v>1354719.300659209</v>
+        <v>1633319.008196452</v>
       </c>
     </row>
     <row r="19">
@@ -8279,28 +8279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1090.273921355473</v>
+        <v>1315.375745154704</v>
       </c>
       <c r="AB19" t="n">
-        <v>1491.760878689277</v>
+        <v>1799.75512480297</v>
       </c>
       <c r="AC19" t="n">
-        <v>1349.389314126714</v>
+        <v>1627.989021663956</v>
       </c>
       <c r="AD19" t="n">
-        <v>1090273.921355473</v>
+        <v>1315375.745154704</v>
       </c>
       <c r="AE19" t="n">
-        <v>1491760.878689277</v>
+        <v>1799755.12480297</v>
       </c>
       <c r="AF19" t="n">
         <v>3.51749537595123e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>44.61805555555555</v>
       </c>
       <c r="AH19" t="n">
-        <v>1349389.314126714</v>
+        <v>1627989.021663956</v>
       </c>
     </row>
     <row r="20">
@@ -8385,28 +8385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1085.15326528363</v>
+        <v>1310.255089082862</v>
       </c>
       <c r="AB20" t="n">
-        <v>1484.75457114438</v>
+        <v>1792.748817258074</v>
       </c>
       <c r="AC20" t="n">
-        <v>1343.051678740488</v>
+        <v>1621.65138627773</v>
       </c>
       <c r="AD20" t="n">
-        <v>1085153.26528363</v>
+        <v>1310255.089082862</v>
       </c>
       <c r="AE20" t="n">
-        <v>1484754.57114438</v>
+        <v>1792748.817258073</v>
       </c>
       <c r="AF20" t="n">
         <v>3.523868878502203e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>45</v>
+        <v>44.53703703703704</v>
       </c>
       <c r="AH20" t="n">
-        <v>1343051.678740488</v>
+        <v>1621651.38627773</v>
       </c>
     </row>
     <row r="21">
@@ -8491,28 +8491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1079.37366390072</v>
+        <v>1304.374002473466</v>
       </c>
       <c r="AB21" t="n">
-        <v>1476.846665554264</v>
+        <v>1784.702055103869</v>
       </c>
       <c r="AC21" t="n">
-        <v>1335.898492561078</v>
+        <v>1614.372595809821</v>
       </c>
       <c r="AD21" t="n">
-        <v>1079373.66390072</v>
+        <v>1304374.002473466</v>
       </c>
       <c r="AE21" t="n">
-        <v>1476846.665554264</v>
+        <v>1784702.055103869</v>
       </c>
       <c r="AF21" t="n">
         <v>3.531327232551215e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>45</v>
+        <v>44.44444444444445</v>
       </c>
       <c r="AH21" t="n">
-        <v>1335898.492561078</v>
+        <v>1614372.595809821</v>
       </c>
     </row>
     <row r="22">
@@ -8597,28 +8597,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1074.357067680581</v>
+        <v>1299.357406253327</v>
       </c>
       <c r="AB22" t="n">
-        <v>1469.982737289265</v>
+        <v>1777.838126838869</v>
       </c>
       <c r="AC22" t="n">
-        <v>1329.689647976106</v>
+        <v>1608.163751224849</v>
       </c>
       <c r="AD22" t="n">
-        <v>1074357.067680581</v>
+        <v>1299357.406253327</v>
       </c>
       <c r="AE22" t="n">
-        <v>1469982.737289265</v>
+        <v>1777838.126838869</v>
       </c>
       <c r="AF22" t="n">
         <v>3.536344670729641e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>44.38657407407408</v>
       </c>
       <c r="AH22" t="n">
-        <v>1329689.647976106</v>
+        <v>1608163.751224849</v>
       </c>
     </row>
     <row r="23">
@@ -8703,28 +8703,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1068.512046659428</v>
+        <v>1293.512385232174</v>
       </c>
       <c r="AB23" t="n">
-        <v>1461.985321663995</v>
+        <v>1769.8407112136</v>
       </c>
       <c r="AC23" t="n">
-        <v>1322.455494473669</v>
+        <v>1600.929597722412</v>
       </c>
       <c r="AD23" t="n">
-        <v>1068512.046659428</v>
+        <v>1293512.385232174</v>
       </c>
       <c r="AE23" t="n">
-        <v>1461985.321663995</v>
+        <v>1769840.7112136</v>
       </c>
       <c r="AF23" t="n">
         <v>3.543260599029634e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>45</v>
+        <v>44.29398148148149</v>
       </c>
       <c r="AH23" t="n">
-        <v>1322455.494473669</v>
+        <v>1600929.597722412</v>
       </c>
     </row>
     <row r="24">
@@ -8809,28 +8809,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1063.770658691779</v>
+        <v>1288.770997264525</v>
       </c>
       <c r="AB24" t="n">
-        <v>1455.497945471383</v>
+        <v>1763.353335020988</v>
       </c>
       <c r="AC24" t="n">
-        <v>1316.58726435979</v>
+        <v>1595.061367608533</v>
       </c>
       <c r="AD24" t="n">
-        <v>1063770.658691779</v>
+        <v>1288770.997264525</v>
       </c>
       <c r="AE24" t="n">
-        <v>1455497.945471383</v>
+        <v>1763353.335020988</v>
       </c>
       <c r="AF24" t="n">
         <v>3.543803024778654e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>45</v>
+        <v>44.29398148148149</v>
       </c>
       <c r="AH24" t="n">
-        <v>1316587.26435979</v>
+        <v>1595061.367608533</v>
       </c>
     </row>
     <row r="25">
@@ -8915,28 +8915,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1060.604019389807</v>
+        <v>1285.604357962553</v>
       </c>
       <c r="AB25" t="n">
-        <v>1451.165209876159</v>
+        <v>1759.020599425764</v>
       </c>
       <c r="AC25" t="n">
-        <v>1312.668038968742</v>
+        <v>1591.142142217485</v>
       </c>
       <c r="AD25" t="n">
-        <v>1060604.019389807</v>
+        <v>1285604.357962553</v>
       </c>
       <c r="AE25" t="n">
-        <v>1451165.209876159</v>
+        <v>1759020.599425764</v>
       </c>
       <c r="AF25" t="n">
         <v>3.549362888706098e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>45</v>
+        <v>44.22453703703704</v>
       </c>
       <c r="AH25" t="n">
-        <v>1312668.038968742</v>
+        <v>1591142.142217485</v>
       </c>
     </row>
     <row r="26">
@@ -9021,28 +9021,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1061.405887409682</v>
+        <v>1286.406225982428</v>
       </c>
       <c r="AB26" t="n">
-        <v>1452.262361076872</v>
+        <v>1760.117750626477</v>
       </c>
       <c r="AC26" t="n">
-        <v>1313.66047959872</v>
+        <v>1592.134582847463</v>
       </c>
       <c r="AD26" t="n">
-        <v>1061405.887409682</v>
+        <v>1286406.225982428</v>
       </c>
       <c r="AE26" t="n">
-        <v>1452262.361076872</v>
+        <v>1760117.750626477</v>
       </c>
       <c r="AF26" t="n">
         <v>3.548413643645315e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>45</v>
+        <v>44.23611111111111</v>
       </c>
       <c r="AH26" t="n">
-        <v>1313660.47959872</v>
+        <v>1592134.582847463</v>
       </c>
     </row>
     <row r="27">
@@ -9127,28 +9127,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1063.767177635891</v>
+        <v>1288.767516208637</v>
       </c>
       <c r="AB27" t="n">
-        <v>1455.493182537144</v>
+        <v>1763.348572086748</v>
       </c>
       <c r="AC27" t="n">
-        <v>1316.58295599331</v>
+        <v>1595.057059242053</v>
       </c>
       <c r="AD27" t="n">
-        <v>1063767.177635891</v>
+        <v>1288767.516208637</v>
       </c>
       <c r="AE27" t="n">
-        <v>1455493.182537144</v>
+        <v>1763348.572086748</v>
       </c>
       <c r="AF27" t="n">
         <v>3.54854925008257e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>45</v>
+        <v>44.22453703703704</v>
       </c>
       <c r="AH27" t="n">
-        <v>1316582.95599331</v>
+        <v>1595057.059242053</v>
       </c>
     </row>
   </sheetData>
@@ -9424,28 +9424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2116.843973771348</v>
+        <v>2494.248728950445</v>
       </c>
       <c r="AB2" t="n">
-        <v>2896.359313479046</v>
+        <v>3412.741149437988</v>
       </c>
       <c r="AC2" t="n">
-        <v>2619.934845666434</v>
+        <v>3087.033923947783</v>
       </c>
       <c r="AD2" t="n">
-        <v>2116843.973771348</v>
+        <v>2494248.728950445</v>
       </c>
       <c r="AE2" t="n">
-        <v>2896359.313479046</v>
+        <v>3412741.149437988</v>
       </c>
       <c r="AF2" t="n">
         <v>2.322567210237779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.94675925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>2619934.845666434</v>
+        <v>3087033.923947783</v>
       </c>
     </row>
     <row r="3">
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1424.682872856118</v>
+        <v>1705.350467371692</v>
       </c>
       <c r="AB3" t="n">
-        <v>1949.31395921418</v>
+        <v>2333.335744210767</v>
       </c>
       <c r="AC3" t="n">
-        <v>1763.274170826102</v>
+        <v>2110.645455640576</v>
       </c>
       <c r="AD3" t="n">
-        <v>1424682.872856118</v>
+        <v>1705350.467371692</v>
       </c>
       <c r="AE3" t="n">
-        <v>1949313.95921418</v>
+        <v>2333335.744210767</v>
       </c>
       <c r="AF3" t="n">
         <v>3.08389681834677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.68287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1763274.170826102</v>
+        <v>2110645.455640576</v>
       </c>
     </row>
     <row r="4">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1268.805580573607</v>
+        <v>1520.398373249933</v>
       </c>
       <c r="AB4" t="n">
-        <v>1736.035771092454</v>
+        <v>2080.276129522852</v>
       </c>
       <c r="AC4" t="n">
-        <v>1570.350953640897</v>
+        <v>1881.737495407076</v>
       </c>
       <c r="AD4" t="n">
-        <v>1268805.580573607</v>
+        <v>1520398.373249933</v>
       </c>
       <c r="AE4" t="n">
-        <v>1736035.771092454</v>
+        <v>2080276.129522853</v>
       </c>
       <c r="AF4" t="n">
         <v>3.366854441161786e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.00694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>1570350.953640897</v>
+        <v>1881737.495407076</v>
       </c>
     </row>
     <row r="5">
@@ -9742,28 +9742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1184.197762404571</v>
+        <v>1426.177325738493</v>
       </c>
       <c r="AB5" t="n">
-        <v>1620.271621640078</v>
+        <v>1951.358735578453</v>
       </c>
       <c r="AC5" t="n">
-        <v>1465.635172136252</v>
+        <v>1765.123796604032</v>
       </c>
       <c r="AD5" t="n">
-        <v>1184197.762404571</v>
+        <v>1426177.325738493</v>
       </c>
       <c r="AE5" t="n">
-        <v>1620271.621640078</v>
+        <v>1951358.735578453</v>
       </c>
       <c r="AF5" t="n">
         <v>3.519832579138861e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.78472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1465635.172136252</v>
+        <v>1765123.796604032</v>
       </c>
     </row>
     <row r="6">
@@ -9848,28 +9848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1140.330338285881</v>
+        <v>1372.56203266199</v>
       </c>
       <c r="AB6" t="n">
-        <v>1560.250276666719</v>
+        <v>1877.999926251388</v>
       </c>
       <c r="AC6" t="n">
-        <v>1411.342180086664</v>
+        <v>1698.766249079406</v>
       </c>
       <c r="AD6" t="n">
-        <v>1140330.338285881</v>
+        <v>1372562.03266199</v>
       </c>
       <c r="AE6" t="n">
-        <v>1560250.276666719</v>
+        <v>1877999.926251388</v>
       </c>
       <c r="AF6" t="n">
         <v>3.618207463211413e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.46527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1411342.180086664</v>
+        <v>1698766.249079406</v>
       </c>
     </row>
     <row r="7">
@@ -9954,28 +9954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1108.555351637401</v>
+        <v>1340.854365821215</v>
       </c>
       <c r="AB7" t="n">
-        <v>1516.774338120793</v>
+        <v>1834.616097636304</v>
       </c>
       <c r="AC7" t="n">
-        <v>1372.015524096698</v>
+        <v>1659.522912177759</v>
       </c>
       <c r="AD7" t="n">
-        <v>1108555.351637401</v>
+        <v>1340854.365821215</v>
       </c>
       <c r="AE7" t="n">
-        <v>1516774.338120793</v>
+        <v>1834616.097636304</v>
       </c>
       <c r="AF7" t="n">
         <v>3.681416664742192e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.64351851851851</v>
       </c>
       <c r="AH7" t="n">
-        <v>1372015.524096698</v>
+        <v>1659522.912177759</v>
       </c>
     </row>
     <row r="8">
@@ -10060,28 +10060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1092.444751456558</v>
+        <v>1315.03006210134</v>
       </c>
       <c r="AB8" t="n">
-        <v>1494.731104203847</v>
+        <v>1799.282145998898</v>
       </c>
       <c r="AC8" t="n">
-        <v>1352.076065486911</v>
+        <v>1627.561183293115</v>
       </c>
       <c r="AD8" t="n">
-        <v>1092444.751456558</v>
+        <v>1315030.06210134</v>
       </c>
       <c r="AE8" t="n">
-        <v>1494731.104203847</v>
+        <v>1799282.145998898</v>
       </c>
       <c r="AF8" t="n">
         <v>3.725188294910221e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.09953703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>1352076.065486911</v>
+        <v>1627561.183293115</v>
       </c>
     </row>
     <row r="9">
@@ -10166,28 +10166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1069.025888227559</v>
+        <v>1301.290736992592</v>
       </c>
       <c r="AB9" t="n">
-        <v>1462.688382366601</v>
+        <v>1780.483395248864</v>
       </c>
       <c r="AC9" t="n">
-        <v>1323.091456049571</v>
+        <v>1610.556558930452</v>
       </c>
       <c r="AD9" t="n">
-        <v>1069025.888227559</v>
+        <v>1301290.736992592</v>
       </c>
       <c r="AE9" t="n">
-        <v>1462688.382366601</v>
+        <v>1780483.395248864</v>
       </c>
       <c r="AF9" t="n">
         <v>3.760353977451992e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.6712962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1323091.456049571</v>
+        <v>1610556.558930452</v>
       </c>
     </row>
     <row r="10">
@@ -10272,28 +10272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1055.913186507675</v>
+        <v>1278.464331733677</v>
       </c>
       <c r="AB10" t="n">
-        <v>1444.747005381885</v>
+        <v>1749.251300543689</v>
       </c>
       <c r="AC10" t="n">
-        <v>1306.862378903395</v>
+        <v>1582.305211509418</v>
       </c>
       <c r="AD10" t="n">
-        <v>1055913.186507675</v>
+        <v>1278464.331733677</v>
       </c>
       <c r="AE10" t="n">
-        <v>1444747.005381885</v>
+        <v>1749251.300543689</v>
       </c>
       <c r="AF10" t="n">
         <v>3.791365064587985e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.30092592592592</v>
       </c>
       <c r="AH10" t="n">
-        <v>1306862.378903395</v>
+        <v>1582305.211509418</v>
       </c>
     </row>
     <row r="11">
@@ -10378,28 +10378,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1045.012156919441</v>
+        <v>1267.563302145442</v>
       </c>
       <c r="AB11" t="n">
-        <v>1429.831735779778</v>
+        <v>1734.336030941582</v>
       </c>
       <c r="AC11" t="n">
-        <v>1293.370601698401</v>
+        <v>1568.813434304425</v>
       </c>
       <c r="AD11" t="n">
-        <v>1045012.156919441</v>
+        <v>1267563.302145442</v>
       </c>
       <c r="AE11" t="n">
-        <v>1429831.735779779</v>
+        <v>1734336.030941582</v>
       </c>
       <c r="AF11" t="n">
         <v>3.815105609763865e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.01157407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>1293370.601698401</v>
+        <v>1568813.434304425</v>
       </c>
     </row>
     <row r="12">
@@ -10484,28 +10484,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1026.77082223383</v>
+        <v>1249.389287267536</v>
       </c>
       <c r="AB12" t="n">
-        <v>1404.873136912036</v>
+        <v>1709.469542004682</v>
       </c>
       <c r="AC12" t="n">
-        <v>1270.794016476983</v>
+        <v>1546.320168171326</v>
       </c>
       <c r="AD12" t="n">
-        <v>1026770.82223383</v>
+        <v>1249389.287267536</v>
       </c>
       <c r="AE12" t="n">
-        <v>1404873.136912036</v>
+        <v>1709469.542004682</v>
       </c>
       <c r="AF12" t="n">
         <v>3.832465883423727e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.81481481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>1270794.016476983</v>
+        <v>1546320.168171326</v>
       </c>
     </row>
     <row r="13">
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1019.094929569843</v>
+        <v>1241.713394603549</v>
       </c>
       <c r="AB13" t="n">
-        <v>1394.370641932685</v>
+        <v>1698.96704702533</v>
       </c>
       <c r="AC13" t="n">
-        <v>1261.293864878116</v>
+        <v>1536.820016572459</v>
       </c>
       <c r="AD13" t="n">
-        <v>1019094.929569843</v>
+        <v>1241713.394603549</v>
       </c>
       <c r="AE13" t="n">
-        <v>1394370.641932684</v>
+        <v>1698967.04702533</v>
       </c>
       <c r="AF13" t="n">
         <v>3.844187777604318e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.67592592592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>1261293.864878116</v>
+        <v>1536820.016572459</v>
       </c>
     </row>
     <row r="14">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1011.999454132895</v>
+        <v>1234.617919166601</v>
       </c>
       <c r="AB14" t="n">
-        <v>1384.662299409569</v>
+        <v>1689.258704502214</v>
       </c>
       <c r="AC14" t="n">
-        <v>1252.512072939662</v>
+        <v>1528.038224634005</v>
       </c>
       <c r="AD14" t="n">
-        <v>1011999.454132895</v>
+        <v>1234617.919166601</v>
       </c>
       <c r="AE14" t="n">
-        <v>1384662.299409569</v>
+        <v>1689258.704502214</v>
       </c>
       <c r="AF14" t="n">
         <v>3.854277509304066e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.56018518518519</v>
       </c>
       <c r="AH14" t="n">
-        <v>1252512.072939662</v>
+        <v>1528038.224634005</v>
       </c>
     </row>
     <row r="15">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1003.316398728179</v>
+        <v>1225.8333785354</v>
       </c>
       <c r="AB15" t="n">
-        <v>1372.781759935468</v>
+        <v>1677.239308464024</v>
       </c>
       <c r="AC15" t="n">
-        <v>1241.765395478527</v>
+        <v>1517.165942884371</v>
       </c>
       <c r="AD15" t="n">
-        <v>1003316.39872818</v>
+        <v>1225833.3785354</v>
       </c>
       <c r="AE15" t="n">
-        <v>1372781.759935468</v>
+        <v>1677239.308464024</v>
       </c>
       <c r="AF15" t="n">
         <v>3.868670214816943e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.38657407407408</v>
       </c>
       <c r="AH15" t="n">
-        <v>1241765.395478527</v>
+        <v>1517165.942884371</v>
       </c>
     </row>
     <row r="16">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>995.0169027741423</v>
+        <v>1217.533882581363</v>
       </c>
       <c r="AB16" t="n">
-        <v>1361.426023423234</v>
+        <v>1665.88357195179</v>
       </c>
       <c r="AC16" t="n">
-        <v>1231.493434521145</v>
+        <v>1506.893981926989</v>
       </c>
       <c r="AD16" t="n">
-        <v>995016.9027741423</v>
+        <v>1217533.882581363</v>
       </c>
       <c r="AE16" t="n">
-        <v>1361426.023423234</v>
+        <v>1665883.57195179</v>
       </c>
       <c r="AF16" t="n">
         <v>3.881134001034279e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.24768518518518</v>
       </c>
       <c r="AH16" t="n">
-        <v>1231493.434521145</v>
+        <v>1506893.981926989</v>
       </c>
     </row>
     <row r="17">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>989.529253522241</v>
+        <v>1202.434015016915</v>
       </c>
       <c r="AB17" t="n">
-        <v>1353.917579618784</v>
+        <v>1645.223266990971</v>
       </c>
       <c r="AC17" t="n">
-        <v>1224.701586055224</v>
+        <v>1488.20546747471</v>
       </c>
       <c r="AD17" t="n">
-        <v>989529.253522241</v>
+        <v>1202434.015016915</v>
       </c>
       <c r="AE17" t="n">
-        <v>1353917.579618784</v>
+        <v>1645223.266990971</v>
       </c>
       <c r="AF17" t="n">
         <v>3.88706913732825e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.17824074074074</v>
       </c>
       <c r="AH17" t="n">
-        <v>1224701.586055224</v>
+        <v>1488205.46747471</v>
       </c>
     </row>
     <row r="18">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>984.9501932483407</v>
+        <v>1197.854954743015</v>
       </c>
       <c r="AB18" t="n">
-        <v>1347.652307338152</v>
+        <v>1638.957994710339</v>
       </c>
       <c r="AC18" t="n">
-        <v>1219.034262567691</v>
+        <v>1482.538143987176</v>
       </c>
       <c r="AD18" t="n">
-        <v>984950.1932483407</v>
+        <v>1197854.954743015</v>
       </c>
       <c r="AE18" t="n">
-        <v>1347652.307338152</v>
+        <v>1638957.994710339</v>
       </c>
       <c r="AF18" t="n">
         <v>3.892559138400173e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>1219034.262567691</v>
+        <v>1482538.143987176</v>
       </c>
     </row>
     <row r="19">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>986.7105851165268</v>
+        <v>1199.615346611201</v>
       </c>
       <c r="AB19" t="n">
-        <v>1350.060953155212</v>
+        <v>1641.366640527399</v>
       </c>
       <c r="AC19" t="n">
-        <v>1221.213030608527</v>
+        <v>1484.716912028012</v>
       </c>
       <c r="AD19" t="n">
-        <v>986710.5851165268</v>
+        <v>1199615.346611201</v>
       </c>
       <c r="AE19" t="n">
-        <v>1350060.953155213</v>
+        <v>1641366.640527399</v>
       </c>
       <c r="AF19" t="n">
         <v>3.891075354326679e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>44.13194444444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>1221213.030608527</v>
+        <v>1484716.912028012</v>
       </c>
     </row>
   </sheetData>
@@ -11523,28 +11523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1130.946431658572</v>
+        <v>1392.79843514443</v>
       </c>
       <c r="AB2" t="n">
-        <v>1547.410801630494</v>
+        <v>1905.688264894932</v>
       </c>
       <c r="AC2" t="n">
-        <v>1399.72808652758</v>
+        <v>1723.812051543637</v>
       </c>
       <c r="AD2" t="n">
-        <v>1130946.431658573</v>
+        <v>1392798.43514443</v>
       </c>
       <c r="AE2" t="n">
-        <v>1547410.801630494</v>
+        <v>1905688.264894932</v>
       </c>
       <c r="AF2" t="n">
         <v>4.339451960353386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.24305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1399728.086527579</v>
+        <v>1723812.051543637</v>
       </c>
     </row>
     <row r="3">
@@ -11629,28 +11629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>927.1416479078687</v>
+        <v>1151.605889853601</v>
       </c>
       <c r="AB3" t="n">
-        <v>1268.556105270291</v>
+        <v>1575.677983763902</v>
       </c>
       <c r="AC3" t="n">
-        <v>1147.48689101297</v>
+        <v>1425.297488471414</v>
       </c>
       <c r="AD3" t="n">
-        <v>927141.6479078687</v>
+        <v>1151605.889853601</v>
       </c>
       <c r="AE3" t="n">
-        <v>1268556.105270291</v>
+        <v>1575677.983763902</v>
       </c>
       <c r="AF3" t="n">
         <v>4.989137485081519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.04398148148147</v>
       </c>
       <c r="AH3" t="n">
-        <v>1147486.89101297</v>
+        <v>1425297.488471414</v>
       </c>
     </row>
     <row r="4">
@@ -11735,28 +11735,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>852.8577622832304</v>
+        <v>1077.320993199106</v>
       </c>
       <c r="AB4" t="n">
-        <v>1166.917615784919</v>
+        <v>1474.038110942875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1055.548636313566</v>
+        <v>1333.357982459969</v>
       </c>
       <c r="AD4" t="n">
-        <v>852857.7622832304</v>
+        <v>1077320.993199106</v>
       </c>
       <c r="AE4" t="n">
-        <v>1166917.615784919</v>
+        <v>1474038.110942875</v>
       </c>
       <c r="AF4" t="n">
         <v>5.227307186527919e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.85648148148147</v>
       </c>
       <c r="AH4" t="n">
-        <v>1055548.636313566</v>
+        <v>1333357.982459969</v>
       </c>
     </row>
     <row r="5">
@@ -11841,28 +11841,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>816.9136169349333</v>
+        <v>1032.055531529862</v>
       </c>
       <c r="AB5" t="n">
-        <v>1117.737250375602</v>
+        <v>1412.103909315787</v>
       </c>
       <c r="AC5" t="n">
-        <v>1011.061975953838</v>
+        <v>1277.334694110972</v>
       </c>
       <c r="AD5" t="n">
-        <v>816913.6169349334</v>
+        <v>1032055.531529862</v>
       </c>
       <c r="AE5" t="n">
-        <v>1117737.250375602</v>
+        <v>1412103.909315787</v>
       </c>
       <c r="AF5" t="n">
         <v>5.342042851398618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.87268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>1011061.975953838</v>
+        <v>1277334.694110972</v>
       </c>
     </row>
     <row r="6">
@@ -11947,28 +11947,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>801.434951952528</v>
+        <v>1016.475381320972</v>
       </c>
       <c r="AB6" t="n">
-        <v>1096.558658076171</v>
+        <v>1390.786460452267</v>
       </c>
       <c r="AC6" t="n">
-        <v>991.904638779123</v>
+        <v>1258.051752647758</v>
       </c>
       <c r="AD6" t="n">
-        <v>801434.951952528</v>
+        <v>1016475.381320972</v>
       </c>
       <c r="AE6" t="n">
-        <v>1096558.658076171</v>
+        <v>1390786.460452267</v>
       </c>
       <c r="AF6" t="n">
         <v>5.397132538863611e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.40972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>991904.6387791231</v>
+        <v>1258051.752647758</v>
       </c>
     </row>
     <row r="7">
@@ -12053,28 +12053,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>803.9303848389378</v>
+        <v>1018.970814207382</v>
       </c>
       <c r="AB7" t="n">
-        <v>1099.973019442086</v>
+        <v>1394.200821818182</v>
       </c>
       <c r="AC7" t="n">
-        <v>994.9931382883615</v>
+        <v>1261.140252156997</v>
       </c>
       <c r="AD7" t="n">
-        <v>803930.3848389378</v>
+        <v>1018970.814207382</v>
       </c>
       <c r="AE7" t="n">
-        <v>1099973.019442086</v>
+        <v>1394200.821818182</v>
       </c>
       <c r="AF7" t="n">
         <v>5.39464728980504e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.43287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>994993.1382883615</v>
+        <v>1261140.252156997</v>
       </c>
     </row>
   </sheetData>
@@ -12350,28 +12350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1416.063011018851</v>
+        <v>1719.402758873833</v>
       </c>
       <c r="AB2" t="n">
-        <v>1937.519883966965</v>
+        <v>2352.562709387344</v>
       </c>
       <c r="AC2" t="n">
-        <v>1752.605705567393</v>
+        <v>2128.037426245915</v>
       </c>
       <c r="AD2" t="n">
-        <v>1416063.011018851</v>
+        <v>1719402.758873833</v>
       </c>
       <c r="AE2" t="n">
-        <v>1937519.883966965</v>
+        <v>2352562.709387344</v>
       </c>
       <c r="AF2" t="n">
         <v>3.411812722985837e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.84490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>1752605.705567393</v>
+        <v>2128037.426245915</v>
       </c>
     </row>
     <row r="3">
@@ -12456,28 +12456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1090.410585030824</v>
+        <v>1336.821757726009</v>
       </c>
       <c r="AB3" t="n">
-        <v>1491.947867959069</v>
+        <v>1829.098505334331</v>
       </c>
       <c r="AC3" t="n">
-        <v>1349.558457403038</v>
+        <v>1654.531911141097</v>
       </c>
       <c r="AD3" t="n">
-        <v>1090410.585030824</v>
+        <v>1336821.757726009</v>
       </c>
       <c r="AE3" t="n">
-        <v>1491947.867959069</v>
+        <v>1829098.505334331</v>
       </c>
       <c r="AF3" t="n">
         <v>4.113796374237824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.46296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>1349558.457403038</v>
+        <v>1654531.911141097</v>
       </c>
     </row>
     <row r="4">
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>999.0335610826164</v>
+        <v>1236.029483457027</v>
       </c>
       <c r="AB4" t="n">
-        <v>1366.921792523347</v>
+        <v>1691.190069038196</v>
       </c>
       <c r="AC4" t="n">
-        <v>1236.464695131703</v>
+        <v>1529.78526244936</v>
       </c>
       <c r="AD4" t="n">
-        <v>999033.5610826164</v>
+        <v>1236029.483457027</v>
       </c>
       <c r="AE4" t="n">
-        <v>1366921.792523347</v>
+        <v>1691190.069038196</v>
       </c>
       <c r="AF4" t="n">
         <v>4.363992386883845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.56944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>1236464.695131703</v>
+        <v>1529785.26244936</v>
       </c>
     </row>
     <row r="5">
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>956.4568126689489</v>
+        <v>1174.488605816259</v>
       </c>
       <c r="AB5" t="n">
-        <v>1308.666406990194</v>
+        <v>1606.987125258191</v>
       </c>
       <c r="AC5" t="n">
-        <v>1183.769121831887</v>
+        <v>1453.618529444144</v>
       </c>
       <c r="AD5" t="n">
-        <v>956456.8126689489</v>
+        <v>1174488.605816259</v>
       </c>
       <c r="AE5" t="n">
-        <v>1308666.406990194</v>
+        <v>1606987.125258191</v>
       </c>
       <c r="AF5" t="n">
         <v>4.494022572667619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.19212962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>1183769.121831887</v>
+        <v>1453618.529444144</v>
       </c>
     </row>
     <row r="6">
@@ -12774,28 +12774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>924.2346669938045</v>
+        <v>1142.232294722334</v>
       </c>
       <c r="AB6" t="n">
-        <v>1264.578645736722</v>
+        <v>1562.85261737147</v>
       </c>
       <c r="AC6" t="n">
-        <v>1143.889034634885</v>
+        <v>1413.696157046961</v>
       </c>
       <c r="AD6" t="n">
-        <v>924234.6669938045</v>
+        <v>1142232.294722334</v>
       </c>
       <c r="AE6" t="n">
-        <v>1264578.645736722</v>
+        <v>1562852.61737147</v>
       </c>
       <c r="AF6" t="n">
         <v>4.577779947510408e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.34722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1143889.034634885</v>
+        <v>1413696.157046961</v>
       </c>
     </row>
     <row r="7">
@@ -12880,28 +12880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>896.752536494429</v>
+        <v>1114.817484030663</v>
       </c>
       <c r="AB7" t="n">
-        <v>1226.976382361448</v>
+        <v>1525.342463927037</v>
       </c>
       <c r="AC7" t="n">
-        <v>1109.875478501039</v>
+        <v>1379.765920001434</v>
       </c>
       <c r="AD7" t="n">
-        <v>896752.536494429</v>
+        <v>1114817.484030663</v>
       </c>
       <c r="AE7" t="n">
-        <v>1226976.382361448</v>
+        <v>1525342.463927038</v>
       </c>
       <c r="AF7" t="n">
         <v>4.633737765392529e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.80324074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>1109875.478501039</v>
+        <v>1379765.920001434</v>
       </c>
     </row>
     <row r="8">
@@ -12986,28 +12986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>882.8785977897315</v>
+        <v>1100.84206009948</v>
       </c>
       <c r="AB8" t="n">
-        <v>1207.993447350703</v>
+        <v>1506.220672352204</v>
       </c>
       <c r="AC8" t="n">
-        <v>1092.704248165003</v>
+        <v>1362.4690853769</v>
       </c>
       <c r="AD8" t="n">
-        <v>882878.5977897316</v>
+        <v>1100842.06009948</v>
       </c>
       <c r="AE8" t="n">
-        <v>1207993.447350703</v>
+        <v>1506220.672352204</v>
       </c>
       <c r="AF8" t="n">
         <v>4.668532049588463e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.4675925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>1092704.248165003</v>
+        <v>1362469.0853769</v>
       </c>
     </row>
     <row r="9">
@@ -13092,28 +13092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>869.5698719292969</v>
+        <v>1078.119094948128</v>
       </c>
       <c r="AB9" t="n">
-        <v>1189.783861488909</v>
+        <v>1475.130108965652</v>
       </c>
       <c r="AC9" t="n">
-        <v>1076.232559620545</v>
+        <v>1334.34576172408</v>
       </c>
       <c r="AD9" t="n">
-        <v>869569.871929297</v>
+        <v>1078119.094948128</v>
       </c>
       <c r="AE9" t="n">
-        <v>1189783.861488909</v>
+        <v>1475130.108965652</v>
       </c>
       <c r="AF9" t="n">
         <v>4.700277350117743e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1076232.559620545</v>
+        <v>1334345.76172408</v>
       </c>
     </row>
     <row r="10">
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>868.9081373007152</v>
+        <v>1077.457360319546</v>
       </c>
       <c r="AB10" t="n">
-        <v>1188.878446976413</v>
+        <v>1474.224694453155</v>
       </c>
       <c r="AC10" t="n">
-        <v>1075.413556598363</v>
+        <v>1333.526758701899</v>
       </c>
       <c r="AD10" t="n">
-        <v>868908.1373007152</v>
+        <v>1077457.360319546</v>
       </c>
       <c r="AE10" t="n">
-        <v>1188878.446976413</v>
+        <v>1474224.694453155</v>
       </c>
       <c r="AF10" t="n">
         <v>4.703326333784397e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.13194444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>1075413.556598363</v>
+        <v>1333526.758701899</v>
       </c>
     </row>
   </sheetData>
@@ -13495,28 +13495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>939.0808546146199</v>
+        <v>1188.796089938842</v>
       </c>
       <c r="AB2" t="n">
-        <v>1284.891854607094</v>
+        <v>1626.56325623636</v>
       </c>
       <c r="AC2" t="n">
-        <v>1162.263579360437</v>
+        <v>1471.32634195703</v>
       </c>
       <c r="AD2" t="n">
-        <v>939080.8546146199</v>
+        <v>1188796.089938842</v>
       </c>
       <c r="AE2" t="n">
-        <v>1284891.854607094</v>
+        <v>1626563.25623636</v>
       </c>
       <c r="AF2" t="n">
         <v>5.316101723124279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.64351851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>1162263.579360437</v>
+        <v>1471326.34195703</v>
       </c>
     </row>
     <row r="3">
@@ -13601,28 +13601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>799.2243363907307</v>
+        <v>1021.118522333717</v>
       </c>
       <c r="AB3" t="n">
-        <v>1093.533996339044</v>
+        <v>1397.139410826828</v>
       </c>
       <c r="AC3" t="n">
-        <v>989.1686465130483</v>
+        <v>1263.798386354994</v>
       </c>
       <c r="AD3" t="n">
-        <v>799224.3363907307</v>
+        <v>1021118.522333717</v>
       </c>
       <c r="AE3" t="n">
-        <v>1093533.996339044</v>
+        <v>1397139.410826828</v>
       </c>
       <c r="AF3" t="n">
         <v>5.932371959913216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.27314814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>989168.6465130483</v>
+        <v>1263798.386354994</v>
       </c>
     </row>
     <row r="4">
@@ -13707,28 +13707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>748.3512581436345</v>
+        <v>970.2785984755443</v>
       </c>
       <c r="AB4" t="n">
-        <v>1023.927206319554</v>
+        <v>1327.577984104932</v>
       </c>
       <c r="AC4" t="n">
-        <v>926.205030839275</v>
+        <v>1200.87580456936</v>
       </c>
       <c r="AD4" t="n">
-        <v>748351.2581436345</v>
+        <v>970278.5984755442</v>
       </c>
       <c r="AE4" t="n">
-        <v>1023927.206319554</v>
+        <v>1327577.984104932</v>
       </c>
       <c r="AF4" t="n">
         <v>6.112413957497051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.91898148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>926205.030839275</v>
+        <v>1200875.80456936</v>
       </c>
     </row>
     <row r="5">
@@ -13813,28 +13813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>750.9027529229295</v>
+        <v>972.8300932548393</v>
       </c>
       <c r="AB5" t="n">
-        <v>1027.418274040591</v>
+        <v>1331.069051825969</v>
       </c>
       <c r="AC5" t="n">
-        <v>929.3629159567603</v>
+        <v>1204.033689686845</v>
       </c>
       <c r="AD5" t="n">
-        <v>750902.7529229295</v>
+        <v>972830.0932548393</v>
       </c>
       <c r="AE5" t="n">
-        <v>1027418.274040591</v>
+        <v>1331069.051825969</v>
       </c>
       <c r="AF5" t="n">
         <v>6.113837214394947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.90740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>929362.9159567603</v>
+        <v>1204033.689686845</v>
       </c>
     </row>
   </sheetData>
@@ -14110,28 +14110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2255.948754813362</v>
+        <v>2634.461323422339</v>
       </c>
       <c r="AB2" t="n">
-        <v>3086.688611770728</v>
+        <v>3604.586206937546</v>
       </c>
       <c r="AC2" t="n">
-        <v>2792.099382857888</v>
+        <v>3260.569558415806</v>
       </c>
       <c r="AD2" t="n">
-        <v>2255948.754813361</v>
+        <v>2634461.323422339</v>
       </c>
       <c r="AE2" t="n">
-        <v>3086688.611770728</v>
+        <v>3604586.206937546</v>
       </c>
       <c r="AF2" t="n">
         <v>2.196090030070951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.30787037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>2792099.382857888</v>
+        <v>3260569.558415806</v>
       </c>
     </row>
     <row r="3">
@@ -14216,28 +14216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1487.998752565418</v>
+        <v>1769.523519412613</v>
       </c>
       <c r="AB3" t="n">
-        <v>2035.945539131915</v>
+        <v>2421.140145128401</v>
       </c>
       <c r="AC3" t="n">
-        <v>1841.637754344675</v>
+        <v>2190.069927768882</v>
       </c>
       <c r="AD3" t="n">
-        <v>1487998.752565418</v>
+        <v>1769523.519412613</v>
       </c>
       <c r="AE3" t="n">
-        <v>2035945.539131915</v>
+        <v>2421140.145128401</v>
       </c>
       <c r="AF3" t="n">
         <v>2.953652042158457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.73611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1841637.754344675</v>
+        <v>2190069.927768882</v>
       </c>
     </row>
     <row r="4">
@@ -14322,28 +14322,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1306.142537247206</v>
+        <v>1568.215281277967</v>
       </c>
       <c r="AB4" t="n">
-        <v>1787.121842403547</v>
+        <v>2145.701332619908</v>
       </c>
       <c r="AC4" t="n">
-        <v>1616.561442005811</v>
+        <v>1940.918608945397</v>
       </c>
       <c r="AD4" t="n">
-        <v>1306142.537247206</v>
+        <v>1568215.281277967</v>
       </c>
       <c r="AE4" t="n">
-        <v>1787121.842403547</v>
+        <v>2145701.332619908</v>
       </c>
       <c r="AF4" t="n">
         <v>3.250190077470998e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1616561.442005811</v>
+        <v>1940918.608945397</v>
       </c>
     </row>
     <row r="5">
@@ -14428,28 +14428,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1227.291299947887</v>
+        <v>1469.91303219207</v>
       </c>
       <c r="AB5" t="n">
-        <v>1679.234100859542</v>
+        <v>2011.19985863143</v>
       </c>
       <c r="AC5" t="n">
-        <v>1518.970355093369</v>
+        <v>1819.253766860376</v>
       </c>
       <c r="AD5" t="n">
-        <v>1227291.299947887</v>
+        <v>1469913.032192071</v>
       </c>
       <c r="AE5" t="n">
-        <v>1679234.100859542</v>
+        <v>2011199.85863143</v>
       </c>
       <c r="AF5" t="n">
         <v>3.404685235517131e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.22453703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>1518970.355093369</v>
+        <v>1819253.766860376</v>
       </c>
     </row>
     <row r="6">
@@ -14534,28 +14534,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1172.263404718378</v>
+        <v>1414.918291351486</v>
       </c>
       <c r="AB6" t="n">
-        <v>1603.942506947126</v>
+        <v>1935.953628016608</v>
       </c>
       <c r="AC6" t="n">
-        <v>1450.864485231539</v>
+        <v>1751.188930886684</v>
       </c>
       <c r="AD6" t="n">
-        <v>1172263.404718378</v>
+        <v>1414918.291351486</v>
       </c>
       <c r="AE6" t="n">
-        <v>1603942.506947126</v>
+        <v>1935953.628016608</v>
       </c>
       <c r="AF6" t="n">
         <v>3.502710748166833e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.84722222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>1450864.485231539</v>
+        <v>1751188.930886684</v>
       </c>
     </row>
     <row r="7">
@@ -14640,28 +14640,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1137.920846812789</v>
+        <v>1380.541568027116</v>
       </c>
       <c r="AB7" t="n">
-        <v>1556.953504133974</v>
+        <v>1888.917878570209</v>
       </c>
       <c r="AC7" t="n">
-        <v>1408.360046897394</v>
+        <v>1708.64220735236</v>
       </c>
       <c r="AD7" t="n">
-        <v>1137920.846812789</v>
+        <v>1380541.568027116</v>
       </c>
       <c r="AE7" t="n">
-        <v>1556953.504133974</v>
+        <v>1888917.878570209</v>
       </c>
       <c r="AF7" t="n">
         <v>3.569895146792331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.94444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>1408360.046897394</v>
+        <v>1708642.20735236</v>
       </c>
     </row>
     <row r="8">
@@ -14746,28 +14746,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1120.886498478794</v>
+        <v>1353.765136605371</v>
       </c>
       <c r="AB8" t="n">
-        <v>1533.646357240992</v>
+        <v>1852.281183806194</v>
       </c>
       <c r="AC8" t="n">
-        <v>1387.277301392092</v>
+        <v>1675.502067316699</v>
       </c>
       <c r="AD8" t="n">
-        <v>1120886.498478794</v>
+        <v>1353765.136605371</v>
       </c>
       <c r="AE8" t="n">
-        <v>1533646.357240992</v>
+        <v>1852281.183806194</v>
       </c>
       <c r="AF8" t="n">
         <v>3.615070863109477e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.35416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1387277.301392092</v>
+        <v>1675502.067316699</v>
       </c>
     </row>
     <row r="9">
@@ -14852,28 +14852,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1097.746151633602</v>
+        <v>1330.692109567883</v>
       </c>
       <c r="AB9" t="n">
-        <v>1501.984713807348</v>
+        <v>1820.711650303391</v>
       </c>
       <c r="AC9" t="n">
-        <v>1358.637400770359</v>
+        <v>1646.945485783285</v>
       </c>
       <c r="AD9" t="n">
-        <v>1097746.151633602</v>
+        <v>1330692.109567883</v>
       </c>
       <c r="AE9" t="n">
-        <v>1501984.713807348</v>
+        <v>1820711.650303391</v>
       </c>
       <c r="AF9" t="n">
         <v>3.648373474497115e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.9375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1358637.400770359</v>
+        <v>1646945.485783285</v>
       </c>
     </row>
     <row r="10">
@@ -14958,28 +14958,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1085.83091306847</v>
+        <v>1318.776871002751</v>
       </c>
       <c r="AB10" t="n">
-        <v>1485.681758739308</v>
+        <v>1804.408695235351</v>
       </c>
       <c r="AC10" t="n">
-        <v>1343.890376852672</v>
+        <v>1632.198461865598</v>
       </c>
       <c r="AD10" t="n">
-        <v>1085830.91306847</v>
+        <v>1318776.871002751</v>
       </c>
       <c r="AE10" t="n">
-        <v>1485681.758739308</v>
+        <v>1804408.695235351</v>
       </c>
       <c r="AF10" t="n">
         <v>3.676463503232775e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.5787037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>1343890.376852673</v>
+        <v>1632198.461865598</v>
       </c>
     </row>
     <row r="11">
@@ -15064,28 +15064,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1074.49803223554</v>
+        <v>1297.701907082071</v>
       </c>
       <c r="AB11" t="n">
-        <v>1470.175611212277</v>
+        <v>1775.572999837287</v>
       </c>
       <c r="AC11" t="n">
-        <v>1329.864114282606</v>
+        <v>1606.114804765173</v>
       </c>
       <c r="AD11" t="n">
-        <v>1074498.03223554</v>
+        <v>1297701.907082071</v>
       </c>
       <c r="AE11" t="n">
-        <v>1470175.611212277</v>
+        <v>1775572.999837287</v>
       </c>
       <c r="AF11" t="n">
         <v>3.702526416492667e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.2662037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1329864.114282606</v>
+        <v>1606114.804765173</v>
       </c>
     </row>
     <row r="12">
@@ -15170,28 +15170,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1066.233454505955</v>
+        <v>1289.437329352485</v>
       </c>
       <c r="AB12" t="n">
-        <v>1458.867651355222</v>
+        <v>1764.265039980232</v>
       </c>
       <c r="AC12" t="n">
-        <v>1319.635370243487</v>
+        <v>1595.886060726054</v>
       </c>
       <c r="AD12" t="n">
-        <v>1066233.454505955</v>
+        <v>1289437.329352485</v>
       </c>
       <c r="AE12" t="n">
-        <v>1458867.651355222</v>
+        <v>1764265.039980232</v>
       </c>
       <c r="AF12" t="n">
         <v>3.719177722186486e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>46</v>
+        <v>45.05787037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>1319635.370243487</v>
+        <v>1595886.060726054</v>
       </c>
     </row>
     <row r="13">
@@ -15276,28 +15276,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1047.519776925133</v>
+        <v>1270.790971579368</v>
       </c>
       <c r="AB13" t="n">
-        <v>1433.262772099954</v>
+        <v>1738.752270655805</v>
       </c>
       <c r="AC13" t="n">
-        <v>1296.474184727668</v>
+        <v>1572.808194298553</v>
       </c>
       <c r="AD13" t="n">
-        <v>1047519.776925133</v>
+        <v>1270790.971579368</v>
       </c>
       <c r="AE13" t="n">
-        <v>1433262.772099954</v>
+        <v>1738752.270655805</v>
       </c>
       <c r="AF13" t="n">
         <v>3.737276967505855e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.83796296296296</v>
       </c>
       <c r="AH13" t="n">
-        <v>1296474.184727668</v>
+        <v>1572808.194298553</v>
       </c>
     </row>
     <row r="14">
@@ -15382,28 +15382,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1040.196125366567</v>
+        <v>1263.467320020802</v>
       </c>
       <c r="AB14" t="n">
-        <v>1423.242228940819</v>
+        <v>1728.731727496671</v>
       </c>
       <c r="AC14" t="n">
-        <v>1287.409988143721</v>
+        <v>1563.743997714607</v>
       </c>
       <c r="AD14" t="n">
-        <v>1040196.125366567</v>
+        <v>1263467.320020802</v>
       </c>
       <c r="AE14" t="n">
-        <v>1423242.228940819</v>
+        <v>1728731.727496671</v>
       </c>
       <c r="AF14" t="n">
         <v>3.748136514697476e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.71064814814815</v>
       </c>
       <c r="AH14" t="n">
-        <v>1287409.988143721</v>
+        <v>1563743.997714607</v>
       </c>
     </row>
     <row r="15">
@@ -15488,28 +15488,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1032.026416003352</v>
+        <v>1255.297610657587</v>
       </c>
       <c r="AB15" t="n">
-        <v>1412.064072167929</v>
+        <v>1717.55357072378</v>
       </c>
       <c r="AC15" t="n">
-        <v>1277.298658964593</v>
+        <v>1553.632668535479</v>
       </c>
       <c r="AD15" t="n">
-        <v>1032026.416003352</v>
+        <v>1255297.610657586</v>
       </c>
       <c r="AE15" t="n">
-        <v>1412064.072167929</v>
+        <v>1717553.57072378</v>
       </c>
       <c r="AF15" t="n">
         <v>3.762036735102752e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.54861111111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>1277298.658964593</v>
+        <v>1553632.668535479</v>
       </c>
     </row>
     <row r="16">
@@ -15594,28 +15594,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1023.539388056549</v>
+        <v>1246.709097484299</v>
       </c>
       <c r="AB16" t="n">
-        <v>1400.451746109866</v>
+        <v>1705.802388101628</v>
       </c>
       <c r="AC16" t="n">
-        <v>1266.79459700751</v>
+        <v>1543.003002289896</v>
       </c>
       <c r="AD16" t="n">
-        <v>1023539.388056549</v>
+        <v>1246709.097484299</v>
       </c>
       <c r="AE16" t="n">
-        <v>1400451.746109866</v>
+        <v>1705802.388101628</v>
       </c>
       <c r="AF16" t="n">
         <v>3.774778603807588e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.39814814814815</v>
       </c>
       <c r="AH16" t="n">
-        <v>1266794.59700751</v>
+        <v>1543003.002289896</v>
       </c>
     </row>
     <row r="17">
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1018.04124795568</v>
+        <v>1241.210957383429</v>
       </c>
       <c r="AB17" t="n">
-        <v>1392.928948263034</v>
+        <v>1698.279590254797</v>
       </c>
       <c r="AC17" t="n">
-        <v>1259.989764428867</v>
+        <v>1536.198169711253</v>
       </c>
       <c r="AD17" t="n">
-        <v>1018041.24795568</v>
+        <v>1241210.957383429</v>
       </c>
       <c r="AE17" t="n">
-        <v>1392928.948263034</v>
+        <v>1698279.590254797</v>
       </c>
       <c r="AF17" t="n">
         <v>3.779556804571901e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.34027777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>1259989.764428867</v>
+        <v>1536198.169711253</v>
       </c>
     </row>
     <row r="18">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1011.858658553169</v>
+        <v>1235.028367980919</v>
       </c>
       <c r="AB18" t="n">
-        <v>1384.469656685925</v>
+        <v>1689.820298677688</v>
       </c>
       <c r="AC18" t="n">
-        <v>1252.337815767187</v>
+        <v>1528.546221049573</v>
       </c>
       <c r="AD18" t="n">
-        <v>1011858.658553169</v>
+        <v>1235028.367980919</v>
       </c>
       <c r="AE18" t="n">
-        <v>1384469.656685925</v>
+        <v>1689820.298677688</v>
       </c>
       <c r="AF18" t="n">
         <v>3.784335005336215e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>44.28240740740741</v>
       </c>
       <c r="AH18" t="n">
-        <v>1252337.815767187</v>
+        <v>1528546.221049573</v>
       </c>
     </row>
     <row r="19">
@@ -15912,28 +15912,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1004.303962084954</v>
+        <v>1217.833073651438</v>
       </c>
       <c r="AB19" t="n">
-        <v>1374.132987688427</v>
+        <v>1666.292938373246</v>
       </c>
       <c r="AC19" t="n">
-        <v>1242.987663951204</v>
+        <v>1507.26427899173</v>
       </c>
       <c r="AD19" t="n">
-        <v>1004303.962084954</v>
+        <v>1217833.073651438</v>
       </c>
       <c r="AE19" t="n">
-        <v>1374132.987688427</v>
+        <v>1666292.938373246</v>
       </c>
       <c r="AF19" t="n">
         <v>3.791140321576297e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>44.20138888888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>1242987.663951204</v>
+        <v>1507264.27899173</v>
       </c>
     </row>
     <row r="20">
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1004.183574081968</v>
+        <v>1217.712685648452</v>
       </c>
       <c r="AB20" t="n">
-        <v>1373.968267511598</v>
+        <v>1666.128218196417</v>
       </c>
       <c r="AC20" t="n">
-        <v>1242.838664436865</v>
+        <v>1507.115279477391</v>
       </c>
       <c r="AD20" t="n">
-        <v>1004183.574081968</v>
+        <v>1217712.685648452</v>
       </c>
       <c r="AE20" t="n">
-        <v>1373968.267511598</v>
+        <v>1666128.218196417</v>
       </c>
       <c r="AF20" t="n">
         <v>3.79649769819083e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>45</v>
+        <v>44.14351851851853</v>
       </c>
       <c r="AH20" t="n">
-        <v>1242838.664436865</v>
+        <v>1507115.279477391</v>
       </c>
     </row>
     <row r="21">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1006.485402740088</v>
+        <v>1220.014514306572</v>
       </c>
       <c r="AB21" t="n">
-        <v>1377.11773103115</v>
+        <v>1669.277681715969</v>
       </c>
       <c r="AC21" t="n">
-        <v>1245.687547578411</v>
+        <v>1509.964162618938</v>
       </c>
       <c r="AD21" t="n">
-        <v>1006485.402740088</v>
+        <v>1220014.514306572</v>
       </c>
       <c r="AE21" t="n">
-        <v>1377117.73103115</v>
+        <v>1669277.681715969</v>
       </c>
       <c r="AF21" t="n">
         <v>3.796063316303166e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>45</v>
+        <v>44.14351851851853</v>
       </c>
       <c r="AH21" t="n">
-        <v>1245687.547578411</v>
+        <v>1509964.162618937</v>
       </c>
     </row>
   </sheetData>
@@ -16421,28 +16421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>838.4996761771084</v>
+        <v>1077.358822780888</v>
       </c>
       <c r="AB2" t="n">
-        <v>1147.272248940469</v>
+        <v>1474.089871045593</v>
       </c>
       <c r="AC2" t="n">
-        <v>1037.778195708305</v>
+        <v>1333.404802651129</v>
       </c>
       <c r="AD2" t="n">
-        <v>838499.6761771084</v>
+        <v>1077358.822780888</v>
       </c>
       <c r="AE2" t="n">
-        <v>1147272.248940469</v>
+        <v>1474089.871045593</v>
       </c>
       <c r="AF2" t="n">
         <v>6.042343657212465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.71064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1037778.195708305</v>
+        <v>1333404.802651129</v>
       </c>
     </row>
     <row r="3">
@@ -16527,28 +16527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.2784622544949</v>
+        <v>939.5358993799651</v>
       </c>
       <c r="AB3" t="n">
-        <v>996.4627214347774</v>
+        <v>1285.514466930198</v>
       </c>
       <c r="AC3" t="n">
-        <v>901.3617178452548</v>
+        <v>1162.826770437265</v>
       </c>
       <c r="AD3" t="n">
-        <v>728278.4622544949</v>
+        <v>939535.8993799652</v>
       </c>
       <c r="AE3" t="n">
-        <v>996462.7214347775</v>
+        <v>1285514.466930198</v>
       </c>
       <c r="AF3" t="n">
         <v>6.605309438676977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.48611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>901361.7178452548</v>
+        <v>1162826.770437265</v>
       </c>
     </row>
     <row r="4">
@@ -16633,28 +16633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>728.0064461219155</v>
+        <v>939.2638832473857</v>
       </c>
       <c r="AB4" t="n">
-        <v>996.0905369616775</v>
+        <v>1285.142282457098</v>
       </c>
       <c r="AC4" t="n">
-        <v>901.0250541359035</v>
+        <v>1162.490106727914</v>
       </c>
       <c r="AD4" t="n">
-        <v>728006.4461219155</v>
+        <v>939263.8832473857</v>
       </c>
       <c r="AE4" t="n">
-        <v>996090.5369616775</v>
+        <v>1285142.282457098</v>
       </c>
       <c r="AF4" t="n">
         <v>6.628928565515737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>901025.0541359035</v>
+        <v>1162490.106727913</v>
       </c>
     </row>
   </sheetData>
@@ -16930,28 +16930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1749.66066135191</v>
+        <v>2075.566264767589</v>
       </c>
       <c r="AB2" t="n">
-        <v>2393.962906442295</v>
+        <v>2839.881330976105</v>
       </c>
       <c r="AC2" t="n">
-        <v>2165.486446599483</v>
+        <v>2568.847042546226</v>
       </c>
       <c r="AD2" t="n">
-        <v>1749660.66135191</v>
+        <v>2075566.264767589</v>
       </c>
       <c r="AE2" t="n">
-        <v>2393962.906442295</v>
+        <v>2839881.330976105</v>
       </c>
       <c r="AF2" t="n">
         <v>2.785877155910298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.03703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2165486.446599483</v>
+        <v>2568847.042546227</v>
       </c>
     </row>
     <row r="3">
@@ -17036,28 +17036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1250.942174031178</v>
+        <v>1519.316103715441</v>
       </c>
       <c r="AB3" t="n">
-        <v>1711.594270183226</v>
+        <v>2078.795320599399</v>
       </c>
       <c r="AC3" t="n">
-        <v>1548.242115274584</v>
+        <v>1880.398012808949</v>
       </c>
       <c r="AD3" t="n">
-        <v>1250942.174031178</v>
+        <v>1519316.103715441</v>
       </c>
       <c r="AE3" t="n">
-        <v>1711594.270183226</v>
+        <v>2078795.320599399</v>
       </c>
       <c r="AF3" t="n">
         <v>3.523206084068638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.99768518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1548242.115274584</v>
+        <v>1880398.012808949</v>
       </c>
     </row>
     <row r="4">
@@ -17142,28 +17142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1133.096062318845</v>
+        <v>1372.705671682186</v>
       </c>
       <c r="AB4" t="n">
-        <v>1550.35202113489</v>
+        <v>1878.196459495726</v>
       </c>
       <c r="AC4" t="n">
-        <v>1402.388600170503</v>
+        <v>1698.944025466741</v>
       </c>
       <c r="AD4" t="n">
-        <v>1133096.062318845</v>
+        <v>1372705.671682186</v>
       </c>
       <c r="AE4" t="n">
-        <v>1550352.02113489</v>
+        <v>1878196.459495727</v>
       </c>
       <c r="AF4" t="n">
         <v>3.796840627210114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.17824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1402388.600170503</v>
+        <v>1698944.025466741</v>
       </c>
     </row>
     <row r="5">
@@ -17248,28 +17248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1071.519600437842</v>
+        <v>1301.54076601759</v>
       </c>
       <c r="AB5" t="n">
-        <v>1466.100389427529</v>
+        <v>1780.825495991368</v>
       </c>
       <c r="AC5" t="n">
-        <v>1326.177825945385</v>
+        <v>1610.866010058233</v>
       </c>
       <c r="AD5" t="n">
-        <v>1071519.600437842</v>
+        <v>1301540.76601759</v>
       </c>
       <c r="AE5" t="n">
-        <v>1466100.389427529</v>
+        <v>1780825.495991368</v>
       </c>
       <c r="AF5" t="n">
         <v>3.93817545020064e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.41898148148149</v>
       </c>
       <c r="AH5" t="n">
-        <v>1326177.825945385</v>
+        <v>1610866.010058233</v>
       </c>
     </row>
     <row r="6">
@@ -17354,28 +17354,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1034.745482754584</v>
+        <v>1264.732482915551</v>
       </c>
       <c r="AB6" t="n">
-        <v>1415.784419253724</v>
+        <v>1730.462779184315</v>
       </c>
       <c r="AC6" t="n">
-        <v>1280.66394134606</v>
+        <v>1565.309840258728</v>
       </c>
       <c r="AD6" t="n">
-        <v>1034745.482754584</v>
+        <v>1264732.482915551</v>
       </c>
       <c r="AE6" t="n">
-        <v>1415784.419253724</v>
+        <v>1730462.779184315</v>
       </c>
       <c r="AF6" t="n">
         <v>4.027397090741464e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.36574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>1280663.94134606</v>
+        <v>1565309.840258728</v>
       </c>
     </row>
     <row r="7">
@@ -17460,28 +17460,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1007.068479183532</v>
+        <v>1237.122799152203</v>
       </c>
       <c r="AB7" t="n">
-        <v>1377.915521944588</v>
+        <v>1692.685991806021</v>
       </c>
       <c r="AC7" t="n">
-        <v>1246.409198446777</v>
+        <v>1531.138416447764</v>
       </c>
       <c r="AD7" t="n">
-        <v>1007068.479183532</v>
+        <v>1237122.799152203</v>
       </c>
       <c r="AE7" t="n">
-        <v>1377915.521944588</v>
+        <v>1692685.991806021</v>
       </c>
       <c r="AF7" t="n">
         <v>4.082898436756008e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.74074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>1246409.198446777</v>
+        <v>1531138.416447764</v>
       </c>
     </row>
     <row r="8">
@@ -17566,28 +17566,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>992.1269875032752</v>
+        <v>1212.55970929943</v>
       </c>
       <c r="AB8" t="n">
-        <v>1357.47191385557</v>
+        <v>1659.077688622413</v>
       </c>
       <c r="AC8" t="n">
-        <v>1227.916699620991</v>
+        <v>1500.737642550449</v>
       </c>
       <c r="AD8" t="n">
-        <v>992126.9875032753</v>
+        <v>1212559.70929943</v>
       </c>
       <c r="AE8" t="n">
-        <v>1357471.91385557</v>
+        <v>1659077.688622413</v>
       </c>
       <c r="AF8" t="n">
         <v>4.124524446266917e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.27777777777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>1227916.699620991</v>
+        <v>1500737.642550449</v>
       </c>
     </row>
     <row r="9">
@@ -17672,28 +17672,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>968.8327685951861</v>
+        <v>1198.852923145077</v>
       </c>
       <c r="AB9" t="n">
-        <v>1325.599735877114</v>
+        <v>1640.323459105299</v>
       </c>
       <c r="AC9" t="n">
-        <v>1199.086357575916</v>
+        <v>1483.773290376723</v>
       </c>
       <c r="AD9" t="n">
-        <v>968832.7685951861</v>
+        <v>1198852.923145077</v>
       </c>
       <c r="AE9" t="n">
-        <v>1325599.735877113</v>
+        <v>1640323.459105299</v>
       </c>
       <c r="AF9" t="n">
         <v>4.159535469770278e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.89583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1199086.357575916</v>
+        <v>1483773.290376723</v>
       </c>
     </row>
     <row r="10">
@@ -17778,28 +17778,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>957.3723072223354</v>
+        <v>1177.872348826195</v>
       </c>
       <c r="AB10" t="n">
-        <v>1309.919027026907</v>
+        <v>1611.61691172459</v>
       </c>
       <c r="AC10" t="n">
-        <v>1184.902193570359</v>
+        <v>1457.806455588137</v>
       </c>
       <c r="AD10" t="n">
-        <v>957372.3072223354</v>
+        <v>1177872.348826195</v>
       </c>
       <c r="AE10" t="n">
-        <v>1309919.027026907</v>
+        <v>1611616.91172459</v>
       </c>
       <c r="AF10" t="n">
         <v>4.185350049311927e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.61805555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>1184902.193570359</v>
+        <v>1457806.455588137</v>
       </c>
     </row>
     <row r="11">
@@ -17884,28 +17884,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>947.9097031112825</v>
+        <v>1168.308259488657</v>
       </c>
       <c r="AB11" t="n">
-        <v>1296.971874621534</v>
+        <v>1598.530902755129</v>
       </c>
       <c r="AC11" t="n">
-        <v>1173.190699219113</v>
+        <v>1445.969356948391</v>
       </c>
       <c r="AD11" t="n">
-        <v>947909.7031112825</v>
+        <v>1168308.259488657</v>
       </c>
       <c r="AE11" t="n">
-        <v>1296971.874621534</v>
+        <v>1598530.902755129</v>
       </c>
       <c r="AF11" t="n">
         <v>4.204065619479621e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.4212962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>1173190.699219113</v>
+        <v>1445969.356948391</v>
       </c>
     </row>
     <row r="12">
@@ -17990,28 +17990,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>937.9405451475894</v>
+        <v>1158.339101524964</v>
       </c>
       <c r="AB12" t="n">
-        <v>1283.3316328874</v>
+        <v>1584.890661020994</v>
       </c>
       <c r="AC12" t="n">
-        <v>1160.852263011885</v>
+        <v>1433.630920741163</v>
       </c>
       <c r="AD12" t="n">
-        <v>937940.5451475894</v>
+        <v>1158339.101524964</v>
       </c>
       <c r="AE12" t="n">
-        <v>1283331.6328874</v>
+        <v>1584890.661020994</v>
       </c>
       <c r="AF12" t="n">
         <v>4.219393026082476e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.25925925925927</v>
       </c>
       <c r="AH12" t="n">
-        <v>1160852.263011885</v>
+        <v>1433630.920741163</v>
       </c>
     </row>
     <row r="13">
@@ -18096,28 +18096,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>928.876328532245</v>
+        <v>1139.754771963588</v>
       </c>
       <c r="AB13" t="n">
-        <v>1270.929571829271</v>
+        <v>1559.462761432364</v>
       </c>
       <c r="AC13" t="n">
-        <v>1149.633837254742</v>
+        <v>1410.629824200991</v>
       </c>
       <c r="AD13" t="n">
-        <v>928876.328532245</v>
+        <v>1139754.771963588</v>
       </c>
       <c r="AE13" t="n">
-        <v>1270929.571829271</v>
+        <v>1559462.761432364</v>
       </c>
       <c r="AF13" t="n">
         <v>4.233591044830383e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.1087962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1149633.837254742</v>
+        <v>1410629.824200991</v>
       </c>
     </row>
     <row r="14">
@@ -18202,28 +18202,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>927.0560567641908</v>
+        <v>1137.934500195533</v>
       </c>
       <c r="AB14" t="n">
-        <v>1268.438995691496</v>
+        <v>1556.97218529459</v>
       </c>
       <c r="AC14" t="n">
-        <v>1147.380958208011</v>
+        <v>1408.37694515426</v>
       </c>
       <c r="AD14" t="n">
-        <v>927056.0567641908</v>
+        <v>1137934.500195534</v>
       </c>
       <c r="AE14" t="n">
-        <v>1268438.995691496</v>
+        <v>1556972.185294589</v>
       </c>
       <c r="AF14" t="n">
         <v>4.238108596250171e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.0625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1147380.958208011</v>
+        <v>1408376.94515426</v>
       </c>
     </row>
   </sheetData>
@@ -18499,28 +18499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1986.414216742905</v>
+        <v>2343.334746715769</v>
       </c>
       <c r="AB2" t="n">
-        <v>2717.899565757958</v>
+        <v>3206.253981089484</v>
       </c>
       <c r="AC2" t="n">
-        <v>2458.507045798017</v>
+        <v>2900.253601139908</v>
       </c>
       <c r="AD2" t="n">
-        <v>1986414.216742905</v>
+        <v>2343334.746715769</v>
       </c>
       <c r="AE2" t="n">
-        <v>2717899.565757959</v>
+        <v>3206253.981089484</v>
       </c>
       <c r="AF2" t="n">
         <v>2.465452380748327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.49305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2458507.045798017</v>
+        <v>2900253.601139908</v>
       </c>
     </row>
     <row r="3">
@@ -18605,28 +18605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1368.047267444764</v>
+        <v>1647.82639375789</v>
       </c>
       <c r="AB3" t="n">
-        <v>1871.822625303795</v>
+        <v>2254.628768909342</v>
       </c>
       <c r="AC3" t="n">
-        <v>1693.178501064355</v>
+        <v>2039.450163595986</v>
       </c>
       <c r="AD3" t="n">
-        <v>1368047.267444764</v>
+        <v>1647826.39375789</v>
       </c>
       <c r="AE3" t="n">
-        <v>1871822.625303795</v>
+        <v>2254628.768909343</v>
       </c>
       <c r="AF3" t="n">
         <v>3.213814416636726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.84953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1693178.501064355</v>
+        <v>2039450.163595986</v>
       </c>
     </row>
     <row r="4">
@@ -18711,28 +18711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1219.284283397595</v>
+        <v>1470.076984021507</v>
       </c>
       <c r="AB4" t="n">
-        <v>1668.278547570792</v>
+        <v>2011.42418475751</v>
       </c>
       <c r="AC4" t="n">
-        <v>1509.060384434283</v>
+        <v>1819.456683615826</v>
       </c>
       <c r="AD4" t="n">
-        <v>1219284.283397595</v>
+        <v>1470076.984021507</v>
       </c>
       <c r="AE4" t="n">
-        <v>1668278.547570792</v>
+        <v>2011424.18475751</v>
       </c>
       <c r="AF4" t="n">
         <v>3.500123050635543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.3587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>1509060.384434283</v>
+        <v>1819456.683615826</v>
       </c>
     </row>
     <row r="5">
@@ -18817,28 +18817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1149.318830342856</v>
+        <v>1390.460440533338</v>
       </c>
       <c r="AB5" t="n">
-        <v>1572.548728043356</v>
+        <v>1902.489317522993</v>
       </c>
       <c r="AC5" t="n">
-        <v>1422.466884524899</v>
+        <v>1720.918407219126</v>
       </c>
       <c r="AD5" t="n">
-        <v>1149318.830342856</v>
+        <v>1390460.440533338</v>
       </c>
       <c r="AE5" t="n">
-        <v>1572548.728043356</v>
+        <v>1902489.317522993</v>
       </c>
       <c r="AF5" t="n">
         <v>3.649978208005137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.28703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>1422466.884524899</v>
+        <v>1720918.407219126</v>
       </c>
     </row>
     <row r="6">
@@ -18923,28 +18923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1109.761702047803</v>
+        <v>1341.286387223637</v>
       </c>
       <c r="AB6" t="n">
-        <v>1518.42491997273</v>
+        <v>1835.207208378537</v>
       </c>
       <c r="AC6" t="n">
-        <v>1373.508576733292</v>
+        <v>1660.057608140382</v>
       </c>
       <c r="AD6" t="n">
-        <v>1109761.702047803</v>
+        <v>1341286.387223637</v>
       </c>
       <c r="AE6" t="n">
-        <v>1518424.91997273</v>
+        <v>1835207.208378537</v>
       </c>
       <c r="AF6" t="n">
         <v>3.74028726117604e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.12962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1373508.576733292</v>
+        <v>1660057.608140382</v>
       </c>
     </row>
     <row r="7">
@@ -19029,28 +19029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1079.223521761636</v>
+        <v>1310.714041518688</v>
       </c>
       <c r="AB7" t="n">
-        <v>1476.641234455765</v>
+        <v>1793.376776228324</v>
       </c>
       <c r="AC7" t="n">
-        <v>1335.712667518295</v>
+        <v>1622.219413725206</v>
       </c>
       <c r="AD7" t="n">
-        <v>1079223.521761636</v>
+        <v>1310714.041518688</v>
       </c>
       <c r="AE7" t="n">
-        <v>1476641.234455765</v>
+        <v>1793376.776228324</v>
       </c>
       <c r="AF7" t="n">
         <v>3.801051699987491e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.37731481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>1335712.667518295</v>
+        <v>1622219.413725206</v>
       </c>
     </row>
     <row r="8">
@@ -19135,28 +19135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1051.934824299924</v>
+        <v>1283.492663864681</v>
       </c>
       <c r="AB8" t="n">
-        <v>1439.303634696286</v>
+        <v>1756.131286399687</v>
       </c>
       <c r="AC8" t="n">
-        <v>1301.93851587621</v>
+        <v>1588.52858117144</v>
       </c>
       <c r="AD8" t="n">
-        <v>1051934.824299924</v>
+        <v>1283492.663864681</v>
       </c>
       <c r="AE8" t="n">
-        <v>1439303.634696286</v>
+        <v>1756131.286399686</v>
       </c>
       <c r="AF8" t="n">
         <v>3.850089668151118e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.78703703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>1301938.51587621</v>
+        <v>1588528.58117144</v>
       </c>
     </row>
     <row r="9">
@@ -19241,28 +19241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1039.423179822704</v>
+        <v>1261.296774565108</v>
       </c>
       <c r="AB9" t="n">
-        <v>1422.184650747756</v>
+        <v>1725.761891446484</v>
       </c>
       <c r="AC9" t="n">
-        <v>1286.453343729083</v>
+        <v>1561.057598648857</v>
       </c>
       <c r="AD9" t="n">
-        <v>1039423.179822704</v>
+        <v>1261296.774565108</v>
       </c>
       <c r="AE9" t="n">
-        <v>1422184.650747756</v>
+        <v>1725761.891446484</v>
       </c>
       <c r="AF9" t="n">
         <v>3.883136994522258e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.39351851851851</v>
       </c>
       <c r="AH9" t="n">
-        <v>1286453.343729083</v>
+        <v>1561057.598648857</v>
       </c>
     </row>
     <row r="10">
@@ -19347,28 +19347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1028.185919864006</v>
+        <v>1250.059514606409</v>
       </c>
       <c r="AB10" t="n">
-        <v>1406.809335919344</v>
+        <v>1710.386576618072</v>
       </c>
       <c r="AC10" t="n">
-        <v>1272.545427368505</v>
+        <v>1547.14968228828</v>
       </c>
       <c r="AD10" t="n">
-        <v>1028185.919864006</v>
+        <v>1250059.514606409</v>
       </c>
       <c r="AE10" t="n">
-        <v>1406809.335919344</v>
+        <v>1710386.576618072</v>
       </c>
       <c r="AF10" t="n">
         <v>3.907199103124286e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.11574074074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1272545.427368505</v>
+        <v>1547149.68228828</v>
       </c>
     </row>
     <row r="11">
@@ -19453,28 +19453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1007.899746698585</v>
+        <v>1229.840661248694</v>
       </c>
       <c r="AB11" t="n">
-        <v>1379.052898831619</v>
+        <v>1682.722249461188</v>
       </c>
       <c r="AC11" t="n">
-        <v>1247.438025680028</v>
+        <v>1522.125599688122</v>
       </c>
       <c r="AD11" t="n">
-        <v>1007899.746698585</v>
+        <v>1229840.661248693</v>
       </c>
       <c r="AE11" t="n">
-        <v>1379052.898831619</v>
+        <v>1682722.249461188</v>
       </c>
       <c r="AF11" t="n">
         <v>3.930347460766744e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.84953703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>1247438.025680028</v>
+        <v>1522125.599688122</v>
       </c>
     </row>
     <row r="12">
@@ -19559,28 +19559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>998.6830248823962</v>
+        <v>1220.623939432504</v>
       </c>
       <c r="AB12" t="n">
-        <v>1366.44217342964</v>
+        <v>1670.111524059209</v>
       </c>
       <c r="AC12" t="n">
-        <v>1236.03085021115</v>
+        <v>1510.718424219243</v>
       </c>
       <c r="AD12" t="n">
-        <v>998683.0248823962</v>
+        <v>1220623.939432504</v>
       </c>
       <c r="AE12" t="n">
-        <v>1366442.17342964</v>
+        <v>1670111.524059209</v>
       </c>
       <c r="AF12" t="n">
         <v>3.949688522744324e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.62962962962964</v>
       </c>
       <c r="AH12" t="n">
-        <v>1236030.85021115</v>
+        <v>1510718.424219243</v>
       </c>
     </row>
     <row r="13">
@@ -19665,28 +19665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>990.2450192177458</v>
+        <v>1212.185933767854</v>
       </c>
       <c r="AB13" t="n">
-        <v>1354.896921820728</v>
+        <v>1658.566272450297</v>
       </c>
       <c r="AC13" t="n">
-        <v>1225.58746121193</v>
+        <v>1500.275035220024</v>
       </c>
       <c r="AD13" t="n">
-        <v>990245.0192177459</v>
+        <v>1212185.933767854</v>
       </c>
       <c r="AE13" t="n">
-        <v>1354896.921820728</v>
+        <v>1658566.272450297</v>
       </c>
       <c r="AF13" t="n">
         <v>3.961110409738958e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.50231481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>1225587.46121193</v>
+        <v>1500275.035220024</v>
       </c>
     </row>
     <row r="14">
@@ -19771,28 +19771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>981.2135396908548</v>
+        <v>1203.052969014477</v>
       </c>
       <c r="AB14" t="n">
-        <v>1342.539653091279</v>
+        <v>1646.070147156759</v>
       </c>
       <c r="AC14" t="n">
-        <v>1214.409552866485</v>
+        <v>1488.971522586079</v>
       </c>
       <c r="AD14" t="n">
-        <v>981213.5396908547</v>
+        <v>1203052.969014477</v>
       </c>
       <c r="AE14" t="n">
-        <v>1342539.653091279</v>
+        <v>1646070.147156759</v>
       </c>
       <c r="AF14" t="n">
         <v>3.972684588560187e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.36342592592592</v>
       </c>
       <c r="AH14" t="n">
-        <v>1214409.552866485</v>
+        <v>1488971.522586079</v>
       </c>
     </row>
     <row r="15">
@@ -19877,28 +19877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>973.5125970974306</v>
+        <v>1185.769266825185</v>
       </c>
       <c r="AB15" t="n">
-        <v>1332.002883693347</v>
+        <v>1622.421823318243</v>
       </c>
       <c r="AC15" t="n">
-        <v>1204.878397951442</v>
+        <v>1467.58016158408</v>
       </c>
       <c r="AD15" t="n">
-        <v>973512.5970974306</v>
+        <v>1185769.266825185</v>
       </c>
       <c r="AE15" t="n">
-        <v>1332002.883693347</v>
+        <v>1622421.823318243</v>
       </c>
       <c r="AF15" t="n">
         <v>3.986543144780342e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.21296296296297</v>
       </c>
       <c r="AH15" t="n">
-        <v>1204878.397951442</v>
+        <v>1467580.16158408</v>
       </c>
     </row>
     <row r="16">
@@ -19983,28 +19983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>965.8668367494549</v>
+        <v>1178.123506477209</v>
       </c>
       <c r="AB16" t="n">
-        <v>1321.541617078106</v>
+        <v>1611.960556703002</v>
       </c>
       <c r="AC16" t="n">
-        <v>1195.41553993948</v>
+        <v>1458.117303572118</v>
       </c>
       <c r="AD16" t="n">
-        <v>965866.836749455</v>
+        <v>1178123.506477209</v>
       </c>
       <c r="AE16" t="n">
-        <v>1321541.617078106</v>
+        <v>1611960.556703002</v>
       </c>
       <c r="AF16" t="n">
         <v>3.99750815629519e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.09722222222223</v>
       </c>
       <c r="AH16" t="n">
-        <v>1195415.53993948</v>
+        <v>1458117.303572118</v>
       </c>
     </row>
     <row r="17">
@@ -20089,28 +20089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>967.4250098407194</v>
+        <v>1179.681679568474</v>
       </c>
       <c r="AB17" t="n">
-        <v>1323.673578243319</v>
+        <v>1614.092517868216</v>
       </c>
       <c r="AC17" t="n">
-        <v>1197.344029723311</v>
+        <v>1460.045793355949</v>
       </c>
       <c r="AD17" t="n">
-        <v>967425.0098407194</v>
+        <v>1179681.679568474</v>
       </c>
       <c r="AE17" t="n">
-        <v>1323673.578243319</v>
+        <v>1614092.517868216</v>
       </c>
       <c r="AF17" t="n">
         <v>3.994614611589883e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>1197344.029723311</v>
+        <v>1460045.793355949</v>
       </c>
     </row>
   </sheetData>
@@ -20386,28 +20386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2562.710190929682</v>
+        <v>2972.680929116511</v>
       </c>
       <c r="AB2" t="n">
-        <v>3506.413142024526</v>
+        <v>4067.353192644256</v>
       </c>
       <c r="AC2" t="n">
-        <v>3171.765993031327</v>
+        <v>3679.170712504194</v>
       </c>
       <c r="AD2" t="n">
-        <v>2562710.190929682</v>
+        <v>2972680.929116511</v>
       </c>
       <c r="AE2" t="n">
-        <v>3506413.142024526</v>
+        <v>4067353.192644256</v>
       </c>
       <c r="AF2" t="n">
         <v>1.960191369918216e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.74768518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>3171765.993031327</v>
+        <v>3679170.712504194</v>
       </c>
     </row>
     <row r="3">
@@ -20492,28 +20492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1609.240674307249</v>
+        <v>1902.091558191604</v>
       </c>
       <c r="AB3" t="n">
-        <v>2201.834085275175</v>
+        <v>2602.525584274922</v>
       </c>
       <c r="AC3" t="n">
-        <v>1991.694130470059</v>
+        <v>2354.144195179321</v>
       </c>
       <c r="AD3" t="n">
-        <v>1609240.674307249</v>
+        <v>1902091.558191604</v>
       </c>
       <c r="AE3" t="n">
-        <v>2201834.085275175</v>
+        <v>2602525.584274922</v>
       </c>
       <c r="AF3" t="n">
         <v>2.733524867507251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.62268518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1991694.130470059</v>
+        <v>2354144.195179321</v>
       </c>
     </row>
     <row r="4">
@@ -20598,28 +20598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1393.634119126897</v>
+        <v>1666.891002220148</v>
       </c>
       <c r="AB4" t="n">
-        <v>1906.831684587519</v>
+        <v>2280.713807278571</v>
       </c>
       <c r="AC4" t="n">
-        <v>1724.846344865563</v>
+        <v>2063.045682513836</v>
       </c>
       <c r="AD4" t="n">
-        <v>1393634.119126897</v>
+        <v>1666891.002220148</v>
       </c>
       <c r="AE4" t="n">
-        <v>1906831.684587519</v>
+        <v>2280713.807278571</v>
       </c>
       <c r="AF4" t="n">
         <v>3.035050173226714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.80092592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>1724846.344865563</v>
+        <v>2063045.682513836</v>
       </c>
     </row>
     <row r="5">
@@ -20704,28 +20704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1303.638646750332</v>
+        <v>1547.642201361907</v>
       </c>
       <c r="AB5" t="n">
-        <v>1783.695908961872</v>
+        <v>2117.552337058526</v>
       </c>
       <c r="AC5" t="n">
-        <v>1613.462474843481</v>
+        <v>1915.45611401303</v>
       </c>
       <c r="AD5" t="n">
-        <v>1303638.646750332</v>
+        <v>1547642.201361907</v>
       </c>
       <c r="AE5" t="n">
-        <v>1783695.908961872</v>
+        <v>2117552.337058526</v>
       </c>
       <c r="AF5" t="n">
         <v>3.197995666721576e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.10416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1613462.474843481</v>
+        <v>1915456.11401303</v>
       </c>
     </row>
     <row r="6">
@@ -20810,28 +20810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1246.976401989474</v>
+        <v>1491.013110989973</v>
       </c>
       <c r="AB6" t="n">
-        <v>1706.168125918251</v>
+        <v>2040.069917312499</v>
       </c>
       <c r="AC6" t="n">
-        <v>1543.333834602617</v>
+        <v>1845.368507660305</v>
       </c>
       <c r="AD6" t="n">
-        <v>1246976.401989473</v>
+        <v>1491013.110989973</v>
       </c>
       <c r="AE6" t="n">
-        <v>1706168.125918251</v>
+        <v>2040069.917312499</v>
       </c>
       <c r="AF6" t="n">
         <v>3.290751385193587e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.69212962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1543333.834602617</v>
+        <v>1845368.507660305</v>
       </c>
     </row>
     <row r="7">
@@ -20916,28 +20916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1208.601254360668</v>
+        <v>1452.603797942386</v>
       </c>
       <c r="AB7" t="n">
-        <v>1653.661555940491</v>
+        <v>1987.516600701491</v>
       </c>
       <c r="AC7" t="n">
-        <v>1495.8384179701</v>
+        <v>1797.830805827609</v>
       </c>
       <c r="AD7" t="n">
-        <v>1208601.254360668</v>
+        <v>1452603.797942386</v>
       </c>
       <c r="AE7" t="n">
-        <v>1653661.555940491</v>
+        <v>1987516.600701491</v>
       </c>
       <c r="AF7" t="n">
         <v>3.36287933940839e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.65046296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1495838.4179701</v>
+        <v>1797830.805827609</v>
       </c>
     </row>
     <row r="8">
@@ -21022,28 +21022,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179.699957346883</v>
+        <v>1423.66833550982</v>
       </c>
       <c r="AB8" t="n">
-        <v>1614.117526330994</v>
+        <v>1947.925824458746</v>
       </c>
       <c r="AC8" t="n">
-        <v>1460.06841504614</v>
+        <v>1762.018517703468</v>
       </c>
       <c r="AD8" t="n">
-        <v>1179699.957346883</v>
+        <v>1423668.33550982</v>
       </c>
       <c r="AE8" t="n">
-        <v>1614117.526330994</v>
+        <v>1947925.824458746</v>
       </c>
       <c r="AF8" t="n">
         <v>3.411195377836347e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.96759259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>1460068.41504614</v>
+        <v>1762018.517703468</v>
       </c>
     </row>
     <row r="9">
@@ -21128,28 +21128,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1164.873921159141</v>
+        <v>1399.046309956384</v>
       </c>
       <c r="AB9" t="n">
-        <v>1593.831889540371</v>
+        <v>1914.23688284943</v>
       </c>
       <c r="AC9" t="n">
-        <v>1441.718810959744</v>
+        <v>1731.544801398619</v>
       </c>
       <c r="AD9" t="n">
-        <v>1164873.921159141</v>
+        <v>1399046.309956383</v>
       </c>
       <c r="AE9" t="n">
-        <v>1593831.889540371</v>
+        <v>1914236.88284943</v>
       </c>
       <c r="AF9" t="n">
         <v>3.448020782483445e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.46990740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>1441718.810959744</v>
+        <v>1731544.801398619</v>
       </c>
     </row>
     <row r="10">
@@ -21234,28 +21234,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1152.00398896606</v>
+        <v>1376.481873624093</v>
       </c>
       <c r="AB10" t="n">
-        <v>1576.222680532461</v>
+        <v>1883.363225586916</v>
       </c>
       <c r="AC10" t="n">
-        <v>1425.790200144869</v>
+        <v>1703.617682653789</v>
       </c>
       <c r="AD10" t="n">
-        <v>1152003.98896606</v>
+        <v>1376481.873624093</v>
       </c>
       <c r="AE10" t="n">
-        <v>1576222.680532461</v>
+        <v>1883363.225586916</v>
       </c>
       <c r="AF10" t="n">
         <v>3.478062559958708e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>47</v>
+        <v>46.06481481481481</v>
       </c>
       <c r="AH10" t="n">
-        <v>1425790.200144869</v>
+        <v>1703617.682653788</v>
       </c>
     </row>
     <row r="11">
@@ -21340,28 +21340,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1131.163725978632</v>
+        <v>1365.403434583579</v>
       </c>
       <c r="AB11" t="n">
-        <v>1547.708113305548</v>
+        <v>1868.205216545448</v>
       </c>
       <c r="AC11" t="n">
-        <v>1399.997023193646</v>
+        <v>1689.906332720839</v>
       </c>
       <c r="AD11" t="n">
-        <v>1131163.725978632</v>
+        <v>1365403.434583579</v>
       </c>
       <c r="AE11" t="n">
-        <v>1547708.113305548</v>
+        <v>1868205.216545448</v>
       </c>
       <c r="AF11" t="n">
         <v>3.501874475745553e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.75231481481482</v>
       </c>
       <c r="AH11" t="n">
-        <v>1399997.023193646</v>
+        <v>1689906.332720839</v>
       </c>
     </row>
     <row r="12">
@@ -21446,28 +21446,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1120.352927998837</v>
+        <v>1344.79664723809</v>
       </c>
       <c r="AB12" t="n">
-        <v>1532.916302570847</v>
+        <v>1840.010100992053</v>
       </c>
       <c r="AC12" t="n">
-        <v>1386.616922115028</v>
+        <v>1664.402119423767</v>
       </c>
       <c r="AD12" t="n">
-        <v>1120352.927998838</v>
+        <v>1344796.64723809</v>
       </c>
       <c r="AE12" t="n">
-        <v>1532916.302570847</v>
+        <v>1840010.100992053</v>
       </c>
       <c r="AF12" t="n">
         <v>3.527209246611788e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>46</v>
+        <v>45.42824074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>1386616.922115028</v>
+        <v>1664402.119423767</v>
       </c>
     </row>
     <row r="13">
@@ -21552,28 +21552,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1111.843569752549</v>
+        <v>1336.287288991801</v>
       </c>
       <c r="AB13" t="n">
-        <v>1521.273423211884</v>
+        <v>1828.36722163309</v>
       </c>
       <c r="AC13" t="n">
-        <v>1376.0852228212</v>
+        <v>1653.87042012994</v>
       </c>
       <c r="AD13" t="n">
-        <v>1111843.569752549</v>
+        <v>1336287.288991801</v>
       </c>
       <c r="AE13" t="n">
-        <v>1521273.423211884</v>
+        <v>1828367.22163309</v>
       </c>
       <c r="AF13" t="n">
         <v>3.543130004259969e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>46</v>
+        <v>45.21990740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>1376085.2228212</v>
+        <v>1653870.42012994</v>
       </c>
     </row>
     <row r="14">
@@ -21658,28 +21658,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1104.631419773262</v>
+        <v>1329.075139012514</v>
       </c>
       <c r="AB14" t="n">
-        <v>1511.405441432623</v>
+        <v>1818.499239853829</v>
       </c>
       <c r="AC14" t="n">
-        <v>1367.159027373152</v>
+        <v>1644.944224681892</v>
       </c>
       <c r="AD14" t="n">
-        <v>1104631.419773262</v>
+        <v>1329075.139012514</v>
       </c>
       <c r="AE14" t="n">
-        <v>1511405.441432623</v>
+        <v>1818499.239853829</v>
       </c>
       <c r="AF14" t="n">
         <v>3.557112582716198e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>46</v>
+        <v>45.0462962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>1367159.027373152</v>
+        <v>1644944.224681892</v>
       </c>
     </row>
     <row r="15">
@@ -21764,28 +21764,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1087.597995235137</v>
+        <v>1321.803538421304</v>
       </c>
       <c r="AB15" t="n">
-        <v>1488.099558517905</v>
+        <v>1808.549915124557</v>
       </c>
       <c r="AC15" t="n">
-        <v>1346.077425213803</v>
+        <v>1635.944449540817</v>
       </c>
       <c r="AD15" t="n">
-        <v>1087597.995235137</v>
+        <v>1321803.538421303</v>
       </c>
       <c r="AE15" t="n">
-        <v>1488099.558517905</v>
+        <v>1808549.915124557</v>
       </c>
       <c r="AF15" t="n">
         <v>3.567495685530229e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.91898148148149</v>
       </c>
       <c r="AH15" t="n">
-        <v>1346077.425213803</v>
+        <v>1635944.449540817</v>
       </c>
     </row>
     <row r="16">
@@ -21870,28 +21870,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1079.455670052874</v>
+        <v>1303.96670909983</v>
       </c>
       <c r="AB16" t="n">
-        <v>1476.958869989498</v>
+        <v>1784.144778341546</v>
       </c>
       <c r="AC16" t="n">
-        <v>1335.999988362493</v>
+        <v>1613.868504759551</v>
       </c>
       <c r="AD16" t="n">
-        <v>1079455.670052874</v>
+        <v>1303966.709099831</v>
       </c>
       <c r="AE16" t="n">
-        <v>1476958.869989498</v>
+        <v>1784144.778341545</v>
       </c>
       <c r="AF16" t="n">
         <v>3.58230891221158e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.7337962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1335999.988362493</v>
+        <v>1613868.504759551</v>
       </c>
     </row>
     <row r="17">
@@ -21976,28 +21976,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1074.496516485568</v>
+        <v>1299.007555532524</v>
       </c>
       <c r="AB17" t="n">
-        <v>1470.173537296294</v>
+        <v>1777.359445648342</v>
       </c>
       <c r="AC17" t="n">
-        <v>1329.862238298255</v>
+        <v>1607.730754695313</v>
       </c>
       <c r="AD17" t="n">
-        <v>1074496.516485568</v>
+        <v>1299007.555532524</v>
       </c>
       <c r="AE17" t="n">
-        <v>1470173.537296294</v>
+        <v>1777359.445648342</v>
       </c>
       <c r="AF17" t="n">
         <v>3.586600594708046e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.67592592592593</v>
       </c>
       <c r="AH17" t="n">
-        <v>1329862.238298255</v>
+        <v>1607730.754695313</v>
       </c>
     </row>
     <row r="18">
@@ -22082,28 +22082,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1066.27160763404</v>
+        <v>1290.782646680996</v>
       </c>
       <c r="AB18" t="n">
-        <v>1458.919854148264</v>
+        <v>1766.105762500312</v>
       </c>
       <c r="AC18" t="n">
-        <v>1319.682590875229</v>
+        <v>1597.551107272288</v>
       </c>
       <c r="AD18" t="n">
-        <v>1066271.60763404</v>
+        <v>1290782.646680996</v>
       </c>
       <c r="AE18" t="n">
-        <v>1458919.854148265</v>
+        <v>1766105.762500312</v>
       </c>
       <c r="AF18" t="n">
         <v>3.599752524939152e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>44.51388888888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>1319682.590875229</v>
+        <v>1597551.107272288</v>
       </c>
     </row>
     <row r="19">
@@ -22188,28 +22188,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1062.387062073329</v>
+        <v>1286.796615893801</v>
       </c>
       <c r="AB19" t="n">
-        <v>1453.604847538045</v>
+        <v>1760.651899326004</v>
       </c>
       <c r="AC19" t="n">
-        <v>1314.874841036231</v>
+        <v>1592.61775314479</v>
       </c>
       <c r="AD19" t="n">
-        <v>1062387.062073329</v>
+        <v>1286796.615893801</v>
       </c>
       <c r="AE19" t="n">
-        <v>1453604.847538045</v>
+        <v>1760651.899326004</v>
       </c>
       <c r="AF19" t="n">
         <v>3.603905766064765e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>44.45601851851851</v>
       </c>
       <c r="AH19" t="n">
-        <v>1314874.841036231</v>
+        <v>1592617.75314479</v>
       </c>
     </row>
     <row r="20">
@@ -22294,28 +22294,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1056.153975713493</v>
+        <v>1280.563529533964</v>
       </c>
       <c r="AB20" t="n">
-        <v>1445.076463796154</v>
+        <v>1752.123515584113</v>
       </c>
       <c r="AC20" t="n">
-        <v>1307.160394269004</v>
+        <v>1584.903306377564</v>
       </c>
       <c r="AD20" t="n">
-        <v>1056153.975713493</v>
+        <v>1280563.529533964</v>
       </c>
       <c r="AE20" t="n">
-        <v>1445076.463796154</v>
+        <v>1752123.515584113</v>
       </c>
       <c r="AF20" t="n">
         <v>3.612212248315989e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>45</v>
+        <v>44.36342592592592</v>
       </c>
       <c r="AH20" t="n">
-        <v>1307160.394269004</v>
+        <v>1584903.306377564</v>
       </c>
     </row>
     <row r="21">
@@ -22400,28 +22400,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1050.926624252414</v>
+        <v>1275.336178072885</v>
       </c>
       <c r="AB21" t="n">
-        <v>1437.924170912635</v>
+        <v>1744.971222700594</v>
       </c>
       <c r="AC21" t="n">
-        <v>1300.690706179982</v>
+        <v>1578.433618288542</v>
       </c>
       <c r="AD21" t="n">
-        <v>1050926.624252414</v>
+        <v>1275336.178072885</v>
       </c>
       <c r="AE21" t="n">
-        <v>1437924.170912636</v>
+        <v>1744971.222700594</v>
       </c>
       <c r="AF21" t="n">
         <v>3.617473020408432e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>45</v>
+        <v>44.29398148148149</v>
       </c>
       <c r="AH21" t="n">
-        <v>1300690.706179982</v>
+        <v>1578433.618288542</v>
       </c>
     </row>
     <row r="22">
@@ -22506,28 +22506,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1044.808961370412</v>
+        <v>1259.524011051673</v>
       </c>
       <c r="AB22" t="n">
-        <v>1429.553714665242</v>
+        <v>1723.336318198597</v>
       </c>
       <c r="AC22" t="n">
-        <v>1293.119114528831</v>
+        <v>1558.863518707435</v>
       </c>
       <c r="AD22" t="n">
-        <v>1044808.961370412</v>
+        <v>1259524.011051673</v>
       </c>
       <c r="AE22" t="n">
-        <v>1429553.714665242</v>
+        <v>1723336.318198597</v>
       </c>
       <c r="AF22" t="n">
         <v>3.624256647580266e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>44.21296296296297</v>
       </c>
       <c r="AH22" t="n">
-        <v>1293119.114528831</v>
+        <v>1558863.518707435</v>
       </c>
     </row>
     <row r="23">
@@ -22612,28 +22612,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1041.621999102846</v>
+        <v>1266.031552923318</v>
       </c>
       <c r="AB23" t="n">
-        <v>1425.193172291906</v>
+        <v>1732.240224079865</v>
       </c>
       <c r="AC23" t="n">
-        <v>1289.174736199547</v>
+        <v>1566.917648308106</v>
       </c>
       <c r="AD23" t="n">
-        <v>1041621.999102846</v>
+        <v>1266031.552923318</v>
       </c>
       <c r="AE23" t="n">
-        <v>1425193.172291906</v>
+        <v>1732240.224079865</v>
       </c>
       <c r="AF23" t="n">
         <v>3.623010675242582e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>45</v>
+        <v>44.22453703703704</v>
       </c>
       <c r="AH23" t="n">
-        <v>1289174.736199547</v>
+        <v>1566917.648308106</v>
       </c>
     </row>
     <row r="24">
@@ -22718,28 +22718,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1039.36208159552</v>
+        <v>1254.077131276782</v>
       </c>
       <c r="AB24" t="n">
-        <v>1422.101053457859</v>
+        <v>1715.883656991213</v>
       </c>
       <c r="AC24" t="n">
-        <v>1286.377724847204</v>
+        <v>1552.122129025809</v>
       </c>
       <c r="AD24" t="n">
-        <v>1039362.08159552</v>
+        <v>1254077.131276782</v>
       </c>
       <c r="AE24" t="n">
-        <v>1422101.053457859</v>
+        <v>1715883.656991214</v>
       </c>
       <c r="AF24" t="n">
         <v>3.629655861043562e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>45</v>
+        <v>44.14351851851853</v>
       </c>
       <c r="AH24" t="n">
-        <v>1286377.724847205</v>
+        <v>1552122.129025809</v>
       </c>
     </row>
     <row r="25">
@@ -22824,28 +22824,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1041.97939722895</v>
+        <v>1256.694446910212</v>
       </c>
       <c r="AB25" t="n">
-        <v>1425.682180175335</v>
+        <v>1719.464783708689</v>
       </c>
       <c r="AC25" t="n">
-        <v>1289.617073856907</v>
+        <v>1555.361478035512</v>
       </c>
       <c r="AD25" t="n">
-        <v>1041979.39722895</v>
+        <v>1256694.446910212</v>
       </c>
       <c r="AE25" t="n">
-        <v>1425682.180175335</v>
+        <v>1719464.783708689</v>
       </c>
       <c r="AF25" t="n">
         <v>3.629102095560147e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>45</v>
+        <v>44.15509259259259</v>
       </c>
       <c r="AH25" t="n">
-        <v>1289617.073856907</v>
+        <v>1555361.478035512</v>
       </c>
     </row>
   </sheetData>
@@ -23121,28 +23121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1519.588146363615</v>
+        <v>1833.637135751073</v>
       </c>
       <c r="AB2" t="n">
-        <v>2079.167541352305</v>
+        <v>2508.86322349581</v>
       </c>
       <c r="AC2" t="n">
-        <v>1880.734709335612</v>
+        <v>2269.420838657018</v>
       </c>
       <c r="AD2" t="n">
-        <v>1519588.146363615</v>
+        <v>1833637.135751073</v>
       </c>
       <c r="AE2" t="n">
-        <v>2079167.541352305</v>
+        <v>2508863.223495809</v>
       </c>
       <c r="AF2" t="n">
         <v>3.179927276327245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.81250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1880734.709335612</v>
+        <v>2269420.838657018</v>
       </c>
     </row>
     <row r="3">
@@ -23227,28 +23227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1146.914929877793</v>
+        <v>1394.326736370665</v>
       </c>
       <c r="AB3" t="n">
-        <v>1569.259605374453</v>
+        <v>1907.779354056559</v>
       </c>
       <c r="AC3" t="n">
-        <v>1419.491671107204</v>
+        <v>1725.703570090541</v>
       </c>
       <c r="AD3" t="n">
-        <v>1146914.929877793</v>
+        <v>1394326.736370665</v>
       </c>
       <c r="AE3" t="n">
-        <v>1569259.605374453</v>
+        <v>1907779.354056559</v>
       </c>
       <c r="AF3" t="n">
         <v>3.895130458585053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.28472222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>1419491.671107204</v>
+        <v>1725703.570090541</v>
       </c>
     </row>
     <row r="4">
@@ -23333,28 +23333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1046.950941212364</v>
+        <v>1275.357429145605</v>
       </c>
       <c r="AB4" t="n">
-        <v>1432.484465982483</v>
+        <v>1745.000299355821</v>
       </c>
       <c r="AC4" t="n">
-        <v>1295.770159053689</v>
+        <v>1578.459919908603</v>
       </c>
       <c r="AD4" t="n">
-        <v>1046950.941212364</v>
+        <v>1275357.429145606</v>
       </c>
       <c r="AE4" t="n">
-        <v>1432484.465982483</v>
+        <v>1745000.299355821</v>
       </c>
       <c r="AF4" t="n">
         <v>4.154702269906419e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.0787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1295770.159053689</v>
+        <v>1578459.919908603</v>
       </c>
     </row>
     <row r="5">
@@ -23439,28 +23439,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>991.8879433261835</v>
+        <v>1220.327585648348</v>
       </c>
       <c r="AB5" t="n">
-        <v>1357.144843066588</v>
+        <v>1669.706039737521</v>
       </c>
       <c r="AC5" t="n">
-        <v>1227.620844009063</v>
+        <v>1510.351638752116</v>
       </c>
       <c r="AD5" t="n">
-        <v>991887.9433261835</v>
+        <v>1220327.585648348</v>
       </c>
       <c r="AE5" t="n">
-        <v>1357144.843066589</v>
+        <v>1669706.039737521</v>
       </c>
       <c r="AF5" t="n">
         <v>4.289493217141782e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.57407407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>1227620.844009063</v>
+        <v>1510351.638752116</v>
       </c>
     </row>
     <row r="6">
@@ -23545,28 +23545,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>958.5506844194119</v>
+        <v>1186.956161322796</v>
       </c>
       <c r="AB6" t="n">
-        <v>1311.53133469428</v>
+        <v>1624.045784731964</v>
       </c>
       <c r="AC6" t="n">
-        <v>1186.360624856846</v>
+        <v>1469.04913439972</v>
       </c>
       <c r="AD6" t="n">
-        <v>958550.6844194119</v>
+        <v>1186956.161322796</v>
       </c>
       <c r="AE6" t="n">
-        <v>1311531.33469428</v>
+        <v>1624045.784731964</v>
       </c>
       <c r="AF6" t="n">
         <v>4.374924099192365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.65972222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>1186360.624856846</v>
+        <v>1469049.13439972</v>
       </c>
     </row>
     <row r="7">
@@ -23651,28 +23651,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>941.3559150005021</v>
+        <v>1160.208495525756</v>
       </c>
       <c r="AB7" t="n">
-        <v>1288.004692595639</v>
+        <v>1587.448448364722</v>
       </c>
       <c r="AC7" t="n">
-        <v>1165.07933246025</v>
+        <v>1435.944596450682</v>
       </c>
       <c r="AD7" t="n">
-        <v>941355.9150005021</v>
+        <v>1160208.495525756</v>
       </c>
       <c r="AE7" t="n">
-        <v>1288004.692595639</v>
+        <v>1587448.448364722</v>
       </c>
       <c r="AF7" t="n">
         <v>4.427735917187271e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.11574074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>1165079.33246025</v>
+        <v>1435944.596450682</v>
       </c>
     </row>
     <row r="8">
@@ -23757,28 +23757,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>916.4432033719354</v>
+        <v>1135.363103704894</v>
       </c>
       <c r="AB8" t="n">
-        <v>1253.918021474165</v>
+        <v>1553.45388717409</v>
       </c>
       <c r="AC8" t="n">
-        <v>1134.245845389667</v>
+        <v>1405.194428468418</v>
       </c>
       <c r="AD8" t="n">
-        <v>916443.2033719354</v>
+        <v>1135363.103704894</v>
       </c>
       <c r="AE8" t="n">
-        <v>1253918.021474165</v>
+        <v>1553453.88717409</v>
       </c>
       <c r="AF8" t="n">
         <v>4.470192476751803e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1134245.845389667</v>
+        <v>1405194.428468418</v>
       </c>
     </row>
     <row r="9">
@@ -23863,28 +23863,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>904.331813760256</v>
+        <v>1123.150228866729</v>
       </c>
       <c r="AB9" t="n">
-        <v>1237.346683890666</v>
+        <v>1536.743693026501</v>
       </c>
       <c r="AC9" t="n">
-        <v>1119.256053007118</v>
+        <v>1390.079031797371</v>
       </c>
       <c r="AD9" t="n">
-        <v>904331.8137602559</v>
+        <v>1123150.228866729</v>
       </c>
       <c r="AE9" t="n">
-        <v>1237346.683890666</v>
+        <v>1536743.693026501</v>
       </c>
       <c r="AF9" t="n">
         <v>4.498151674513812e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.40972222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1119256.053007118</v>
+        <v>1390079.031797371</v>
       </c>
     </row>
     <row r="10">
@@ -23969,28 +23969,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>891.5421390818567</v>
+        <v>1100.909143036686</v>
       </c>
       <c r="AB10" t="n">
-        <v>1219.847286755055</v>
+        <v>1506.312458186379</v>
       </c>
       <c r="AC10" t="n">
-        <v>1103.426773773572</v>
+        <v>1362.552111299883</v>
       </c>
       <c r="AD10" t="n">
-        <v>891542.1390818567</v>
+        <v>1100909.143036686</v>
       </c>
       <c r="AE10" t="n">
-        <v>1219847.286755055</v>
+        <v>1506312.458186379</v>
       </c>
       <c r="AF10" t="n">
         <v>4.52248653182519e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1103426.773773572</v>
+        <v>1362552.111299883</v>
       </c>
     </row>
     <row r="11">
@@ -24075,28 +24075,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>888.8892313407158</v>
+        <v>1098.256235295545</v>
       </c>
       <c r="AB11" t="n">
-        <v>1216.217461345597</v>
+        <v>1502.68263277692</v>
       </c>
       <c r="AC11" t="n">
-        <v>1100.1433738067</v>
+        <v>1359.268711333011</v>
       </c>
       <c r="AD11" t="n">
-        <v>888889.2313407158</v>
+        <v>1098256.235295545</v>
       </c>
       <c r="AE11" t="n">
-        <v>1216217.461345597</v>
+        <v>1502682.63277692</v>
       </c>
       <c r="AF11" t="n">
         <v>4.527664161040377e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>1100143.3738067</v>
+        <v>1359268.711333012</v>
       </c>
     </row>
     <row r="12">
@@ -24181,28 +24181,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>891.5347535722324</v>
+        <v>1100.901757527061</v>
       </c>
       <c r="AB12" t="n">
-        <v>1219.837181574962</v>
+        <v>1506.302353006285</v>
       </c>
       <c r="AC12" t="n">
-        <v>1103.417633017684</v>
+        <v>1362.542970543995</v>
       </c>
       <c r="AD12" t="n">
-        <v>891534.7535722323</v>
+        <v>1100901.757527061</v>
       </c>
       <c r="AE12" t="n">
-        <v>1219837.181574962</v>
+        <v>1506302.353006285</v>
       </c>
       <c r="AF12" t="n">
         <v>4.526801222837846e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.13194444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>1103417.633017684</v>
+        <v>1362542.970543995</v>
       </c>
     </row>
   </sheetData>
@@ -24478,28 +24478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1226.78024139789</v>
+        <v>1499.305823862163</v>
       </c>
       <c r="AB2" t="n">
-        <v>1678.534848005125</v>
+        <v>2051.416372912901</v>
       </c>
       <c r="AC2" t="n">
-        <v>1518.33783794997</v>
+        <v>1855.632073463056</v>
       </c>
       <c r="AD2" t="n">
-        <v>1226780.24139789</v>
+        <v>1499305.823862163</v>
       </c>
       <c r="AE2" t="n">
-        <v>1678534.848005125</v>
+        <v>2051416.372912901</v>
       </c>
       <c r="AF2" t="n">
         <v>3.981596241498751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1518337.837949971</v>
+        <v>1855632.073463056</v>
       </c>
     </row>
     <row r="3">
@@ -24584,28 +24584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>977.0728559033323</v>
+        <v>1221.394627231807</v>
       </c>
       <c r="AB3" t="n">
-        <v>1336.874186859115</v>
+        <v>1671.166013106561</v>
       </c>
       <c r="AC3" t="n">
-        <v>1209.284790779986</v>
+        <v>1511.672274311901</v>
       </c>
       <c r="AD3" t="n">
-        <v>977072.8559033324</v>
+        <v>1221394.627231807</v>
       </c>
       <c r="AE3" t="n">
-        <v>1336874.186859115</v>
+        <v>1671166.013106561</v>
       </c>
       <c r="AF3" t="n">
         <v>4.647648666144951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.86574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1209284.790779986</v>
+        <v>1511672.274311901</v>
       </c>
     </row>
     <row r="4">
@@ -24690,28 +24690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>906.9577084610681</v>
+        <v>1132.444458663326</v>
       </c>
       <c r="AB4" t="n">
-        <v>1240.939548866615</v>
+        <v>1549.460468266684</v>
       </c>
       <c r="AC4" t="n">
-        <v>1122.506019992381</v>
+        <v>1401.582135856737</v>
       </c>
       <c r="AD4" t="n">
-        <v>906957.7084610681</v>
+        <v>1132444.458663326</v>
       </c>
       <c r="AE4" t="n">
-        <v>1240939.548866615</v>
+        <v>1549460.468266684</v>
       </c>
       <c r="AF4" t="n">
         <v>4.890010111176788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.44675925925927</v>
       </c>
       <c r="AH4" t="n">
-        <v>1122506.01999238</v>
+        <v>1401582.135856737</v>
       </c>
     </row>
     <row r="5">
@@ -24796,28 +24796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>869.8997235242281</v>
+        <v>1086.01970577662</v>
       </c>
       <c r="AB5" t="n">
-        <v>1190.23517899312</v>
+        <v>1485.940073251544</v>
       </c>
       <c r="AC5" t="n">
-        <v>1076.640804015581</v>
+        <v>1344.124038190407</v>
       </c>
       <c r="AD5" t="n">
-        <v>869899.7235242281</v>
+        <v>1086019.705776619</v>
       </c>
       <c r="AE5" t="n">
-        <v>1190235.17899312</v>
+        <v>1485940.073251544</v>
       </c>
       <c r="AF5" t="n">
         <v>5.006579097694126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.37037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1076640.804015581</v>
+        <v>1344124.038190407</v>
       </c>
     </row>
     <row r="6">
@@ -24902,28 +24902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>838.8105847759788</v>
+        <v>1054.997886836075</v>
       </c>
       <c r="AB6" t="n">
-        <v>1147.697647801763</v>
+        <v>1443.494651991029</v>
       </c>
       <c r="AC6" t="n">
-        <v>1038.162995099327</v>
+        <v>1305.729548362473</v>
       </c>
       <c r="AD6" t="n">
-        <v>838810.5847759788</v>
+        <v>1054997.886836075</v>
       </c>
       <c r="AE6" t="n">
-        <v>1147697.647801763</v>
+        <v>1443494.651991029</v>
       </c>
       <c r="AF6" t="n">
         <v>5.085665463967673e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.66435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>1038162.995099328</v>
+        <v>1305729.548362473</v>
       </c>
     </row>
     <row r="7">
@@ -25008,28 +25008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>824.8677117557068</v>
+        <v>1040.953528589318</v>
       </c>
       <c r="AB7" t="n">
-        <v>1128.620393819282</v>
+        <v>1424.278541444459</v>
       </c>
       <c r="AC7" t="n">
-        <v>1020.90644746184</v>
+        <v>1288.347396436487</v>
       </c>
       <c r="AD7" t="n">
-        <v>824867.7117557067</v>
+        <v>1040953.528589317</v>
       </c>
       <c r="AE7" t="n">
-        <v>1128620.393819282</v>
+        <v>1424278.541444459</v>
       </c>
       <c r="AF7" t="n">
         <v>5.126484233657246e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.30555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1020906.44746184</v>
+        <v>1288347.396436487</v>
       </c>
     </row>
     <row r="8">
@@ -25114,28 +25114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>826.9835246051332</v>
+        <v>1043.069341438744</v>
       </c>
       <c r="AB8" t="n">
-        <v>1131.515342302942</v>
+        <v>1427.173489928119</v>
       </c>
       <c r="AC8" t="n">
-        <v>1023.525106125306</v>
+        <v>1290.966055099952</v>
       </c>
       <c r="AD8" t="n">
-        <v>826983.5246051332</v>
+        <v>1043069.341438744</v>
       </c>
       <c r="AE8" t="n">
-        <v>1131515.342302942</v>
+        <v>1427173.489928119</v>
       </c>
       <c r="AF8" t="n">
         <v>5.128446674507706e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.29398148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>1023525.106125306</v>
+        <v>1290966.055099952</v>
       </c>
     </row>
   </sheetData>
@@ -47144,28 +47144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1035.153815464978</v>
+        <v>1286.313450515105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1416.343118082453</v>
+        <v>1759.990811139121</v>
       </c>
       <c r="AC2" t="n">
-        <v>1281.169318742714</v>
+        <v>1592.01975828662</v>
       </c>
       <c r="AD2" t="n">
-        <v>1035153.815464978</v>
+        <v>1286313.450515105</v>
       </c>
       <c r="AE2" t="n">
-        <v>1416343.118082453</v>
+        <v>1759990.81113912</v>
       </c>
       <c r="AF2" t="n">
         <v>4.774098956743853e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.42592592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>1281169.318742714</v>
+        <v>1592019.75828662</v>
       </c>
     </row>
     <row r="3">
@@ -47250,28 +47250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>865.6864943024398</v>
+        <v>1088.92822709961</v>
       </c>
       <c r="AB3" t="n">
-        <v>1184.470452897314</v>
+        <v>1489.919640440564</v>
       </c>
       <c r="AC3" t="n">
-        <v>1071.426255287515</v>
+        <v>1347.723801072265</v>
       </c>
       <c r="AD3" t="n">
-        <v>865686.4943024397</v>
+        <v>1088928.22709961</v>
       </c>
       <c r="AE3" t="n">
-        <v>1184470.452897314</v>
+        <v>1489919.640440564</v>
       </c>
       <c r="AF3" t="n">
         <v>5.402211874605546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.22222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1071426.255287515</v>
+        <v>1347723.801072265</v>
       </c>
     </row>
     <row r="4">
@@ -47356,28 +47356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>806.7601464984855</v>
+        <v>1020.695911878003</v>
       </c>
       <c r="AB4" t="n">
-        <v>1103.844824184953</v>
+        <v>1396.561176557064</v>
       </c>
       <c r="AC4" t="n">
-        <v>998.495423420681</v>
+        <v>1263.275337952379</v>
       </c>
       <c r="AD4" t="n">
-        <v>806760.1464984855</v>
+        <v>1020695.911878003</v>
       </c>
       <c r="AE4" t="n">
-        <v>1103844.824184953</v>
+        <v>1396561.176557064</v>
       </c>
       <c r="AF4" t="n">
         <v>5.624365496080839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.34722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>998495.423420681</v>
+        <v>1263275.337952379</v>
       </c>
     </row>
     <row r="5">
@@ -47462,28 +47462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>776.3327528064169</v>
+        <v>990.3358379936391</v>
       </c>
       <c r="AB5" t="n">
-        <v>1062.212721773594</v>
+        <v>1355.021184076546</v>
       </c>
       <c r="AC5" t="n">
-        <v>960.8366304324395</v>
+        <v>1225.699864052457</v>
       </c>
       <c r="AD5" t="n">
-        <v>776332.7528064169</v>
+        <v>990335.8379936391</v>
       </c>
       <c r="AE5" t="n">
-        <v>1062212.721773594</v>
+        <v>1355021.184076546</v>
       </c>
       <c r="AF5" t="n">
         <v>5.716268333536392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.62962962962964</v>
       </c>
       <c r="AH5" t="n">
-        <v>960836.6304324395</v>
+        <v>1225699.864052457</v>
       </c>
     </row>
     <row r="6">
@@ -47568,28 +47568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>778.2672272133473</v>
+        <v>992.2703124005694</v>
       </c>
       <c r="AB6" t="n">
-        <v>1064.859555000144</v>
+        <v>1357.668017303096</v>
       </c>
       <c r="AC6" t="n">
-        <v>963.2308536107012</v>
+        <v>1228.094087230718</v>
       </c>
       <c r="AD6" t="n">
-        <v>778267.2272133472</v>
+        <v>992270.3124005694</v>
       </c>
       <c r="AE6" t="n">
-        <v>1064859.555000144</v>
+        <v>1357668.017303096</v>
       </c>
       <c r="AF6" t="n">
         <v>5.719574190998822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.59490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>963230.8536107012</v>
+        <v>1228094.087230718</v>
       </c>
     </row>
   </sheetData>
@@ -47865,28 +47865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>730.4476125294534</v>
+        <v>958.3221679966153</v>
       </c>
       <c r="AB2" t="n">
-        <v>999.4306485371319</v>
+        <v>1311.218668443177</v>
       </c>
       <c r="AC2" t="n">
-        <v>904.0463901504725</v>
+        <v>1186.077799033919</v>
       </c>
       <c r="AD2" t="n">
-        <v>730447.6125294534</v>
+        <v>958322.1679966154</v>
       </c>
       <c r="AE2" t="n">
-        <v>999430.648537132</v>
+        <v>1311218.668443177</v>
       </c>
       <c r="AF2" t="n">
         <v>7.072924648649636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.69675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>904046.3901504724</v>
+        <v>1186077.799033919</v>
       </c>
     </row>
     <row r="3">
@@ -47971,28 +47971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>699.2000543084361</v>
+        <v>908.8401899010775</v>
       </c>
       <c r="AB3" t="n">
-        <v>956.6763608341603</v>
+        <v>1243.515243022056</v>
       </c>
       <c r="AC3" t="n">
-        <v>865.3725116598526</v>
+        <v>1124.835893512635</v>
       </c>
       <c r="AD3" t="n">
-        <v>699200.054308436</v>
+        <v>908840.1899010774</v>
       </c>
       <c r="AE3" t="n">
-        <v>956676.3608341602</v>
+        <v>1243515.243022056</v>
       </c>
       <c r="AF3" t="n">
         <v>7.306988464551788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.16898148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>865372.5116598527</v>
+        <v>1124835.893512635</v>
       </c>
     </row>
   </sheetData>
@@ -48268,28 +48268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1865.863436751172</v>
+        <v>2202.477183252291</v>
       </c>
       <c r="AB2" t="n">
-        <v>2552.956670248205</v>
+        <v>3013.526448561619</v>
       </c>
       <c r="AC2" t="n">
-        <v>2309.306068736907</v>
+        <v>2725.919713821719</v>
       </c>
       <c r="AD2" t="n">
-        <v>1865863.436751172</v>
+        <v>2202477.183252291</v>
       </c>
       <c r="AE2" t="n">
-        <v>2552956.670248205</v>
+        <v>3013526.44856162</v>
       </c>
       <c r="AF2" t="n">
         <v>2.617864250005856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.22453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>2309306.068736907</v>
+        <v>2725919.713821719</v>
       </c>
     </row>
     <row r="3">
@@ -48374,28 +48374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1308.460872368466</v>
+        <v>1577.764726912985</v>
       </c>
       <c r="AB3" t="n">
-        <v>1790.293890794182</v>
+        <v>2158.767305429548</v>
       </c>
       <c r="AC3" t="n">
-        <v>1619.430754550042</v>
+        <v>1952.737583648294</v>
       </c>
       <c r="AD3" t="n">
-        <v>1308460.872368465</v>
+        <v>1577764.726912985</v>
       </c>
       <c r="AE3" t="n">
-        <v>1790293.890794182</v>
+        <v>2158767.305429548</v>
       </c>
       <c r="AF3" t="n">
         <v>3.363073962039464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.88888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1619430.754550042</v>
+        <v>1952737.583648294</v>
       </c>
     </row>
     <row r="4">
@@ -48480,28 +48480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1172.194231963742</v>
+        <v>1422.257216123827</v>
       </c>
       <c r="AB4" t="n">
-        <v>1603.847861732546</v>
+        <v>1945.995068660636</v>
       </c>
       <c r="AC4" t="n">
-        <v>1450.778872823402</v>
+        <v>1760.272030528897</v>
       </c>
       <c r="AD4" t="n">
-        <v>1172194.231963742</v>
+        <v>1422257.216123827</v>
       </c>
       <c r="AE4" t="n">
-        <v>1603847.861732546</v>
+        <v>1945995.068660636</v>
       </c>
       <c r="AF4" t="n">
         <v>3.639924302631064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.79166666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>1450778.872823402</v>
+        <v>1760272.030528897</v>
       </c>
     </row>
     <row r="5">
@@ -48586,28 +48586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1105.952637744136</v>
+        <v>1346.395186712005</v>
       </c>
       <c r="AB5" t="n">
-        <v>1513.213190148396</v>
+        <v>1842.197293222848</v>
       </c>
       <c r="AC5" t="n">
-        <v>1368.794247088684</v>
+        <v>1666.380569097799</v>
       </c>
       <c r="AD5" t="n">
-        <v>1105952.637744136</v>
+        <v>1346395.186712005</v>
       </c>
       <c r="AE5" t="n">
-        <v>1513213.190148396</v>
+        <v>1842197.293222848</v>
       </c>
       <c r="AF5" t="n">
         <v>3.786022361325613e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.87037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1368794.247088684</v>
+        <v>1666380.569097799</v>
       </c>
     </row>
     <row r="6">
@@ -48692,28 +48692,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1067.133352138085</v>
+        <v>1297.989631332517</v>
       </c>
       <c r="AB6" t="n">
-        <v>1460.098930996184</v>
+        <v>1775.966676850247</v>
       </c>
       <c r="AC6" t="n">
-        <v>1320.749138283628</v>
+        <v>1606.470909796544</v>
       </c>
       <c r="AD6" t="n">
-        <v>1067133.352138086</v>
+        <v>1297989.631332517</v>
       </c>
       <c r="AE6" t="n">
-        <v>1460098.930996184</v>
+        <v>1775966.676850247</v>
       </c>
       <c r="AF6" t="n">
         <v>3.878723380347234e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.72453703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1320749.138283628</v>
+        <v>1606470.909796544</v>
       </c>
     </row>
     <row r="7">
@@ -48798,28 +48798,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1048.330430282393</v>
+        <v>1269.533119895684</v>
       </c>
       <c r="AB7" t="n">
-        <v>1434.371943786858</v>
+        <v>1737.031222489689</v>
       </c>
       <c r="AC7" t="n">
-        <v>1297.477498625507</v>
+        <v>1571.251400553905</v>
       </c>
       <c r="AD7" t="n">
-        <v>1048330.430282393</v>
+        <v>1269533.119895684</v>
       </c>
       <c r="AE7" t="n">
-        <v>1434371.943786858</v>
+        <v>1737031.222489689</v>
       </c>
       <c r="AF7" t="n">
         <v>3.934156084289217e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.06481481481481</v>
       </c>
       <c r="AH7" t="n">
-        <v>1297477.498625507</v>
+        <v>1571251.400553905</v>
       </c>
     </row>
     <row r="8">
@@ -48904,28 +48904,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1022.070442944933</v>
+        <v>1243.340452365928</v>
       </c>
       <c r="AB8" t="n">
-        <v>1398.441870602868</v>
+        <v>1701.19325923654</v>
       </c>
       <c r="AC8" t="n">
-        <v>1264.976541198022</v>
+        <v>1538.833762214739</v>
       </c>
       <c r="AD8" t="n">
-        <v>1022070.442944933</v>
+        <v>1243340.452365928</v>
       </c>
       <c r="AE8" t="n">
-        <v>1398441.870602868</v>
+        <v>1701193.25923654</v>
       </c>
       <c r="AF8" t="n">
         <v>3.981915899832451e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.52083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1264976.541198022</v>
+        <v>1538833.762214739</v>
       </c>
     </row>
     <row r="9">
@@ -49010,28 +49010,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1008.957079386288</v>
+        <v>1230.125603580798</v>
       </c>
       <c r="AB9" t="n">
-        <v>1380.49958806116</v>
+        <v>1683.112120130742</v>
       </c>
       <c r="AC9" t="n">
-        <v>1248.746644919943</v>
+        <v>1522.478261648161</v>
       </c>
       <c r="AD9" t="n">
-        <v>1008957.079386288</v>
+        <v>1230125.603580798</v>
       </c>
       <c r="AE9" t="n">
-        <v>1380499.58806116</v>
+        <v>1683112.120130742</v>
       </c>
       <c r="AF9" t="n">
         <v>4.014329938578187e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.15046296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1248746.644919943</v>
+        <v>1522478.261648161</v>
       </c>
     </row>
     <row r="10">
@@ -49116,28 +49116,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>989.0075134465499</v>
+        <v>1210.243357448765</v>
       </c>
       <c r="AB10" t="n">
-        <v>1353.203711829676</v>
+        <v>1655.9083538301</v>
       </c>
       <c r="AC10" t="n">
-        <v>1224.055848805989</v>
+        <v>1497.870784622526</v>
       </c>
       <c r="AD10" t="n">
-        <v>989007.5134465499</v>
+        <v>1210243.357448765</v>
       </c>
       <c r="AE10" t="n">
-        <v>1353203.711829676</v>
+        <v>1655908.3538301</v>
       </c>
       <c r="AF10" t="n">
         <v>4.039540857602648e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.86111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1224055.848805989</v>
+        <v>1497870.784622526</v>
       </c>
     </row>
     <row r="11">
@@ -49222,28 +49222,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>977.0841646014046</v>
+        <v>1198.320008603619</v>
       </c>
       <c r="AB11" t="n">
-        <v>1336.889659918722</v>
+        <v>1639.594301919146</v>
       </c>
       <c r="AC11" t="n">
-        <v>1209.298787112501</v>
+        <v>1483.113722929038</v>
       </c>
       <c r="AD11" t="n">
-        <v>977084.1646014046</v>
+        <v>1198320.008603619</v>
       </c>
       <c r="AE11" t="n">
-        <v>1336889.659918722</v>
+        <v>1639594.301919146</v>
       </c>
       <c r="AF11" t="n">
         <v>4.064438597508793e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.59490740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>1209298.787112501</v>
+        <v>1483113.722929038</v>
       </c>
     </row>
     <row r="12">
@@ -49328,28 +49328,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>968.1855634862744</v>
+        <v>1189.319922262004</v>
       </c>
       <c r="AB12" t="n">
-        <v>1324.714201294427</v>
+        <v>1627.279986730761</v>
       </c>
       <c r="AC12" t="n">
-        <v>1198.285337170945</v>
+        <v>1471.974668698983</v>
       </c>
       <c r="AD12" t="n">
-        <v>968185.5634862744</v>
+        <v>1189319.922262004</v>
       </c>
       <c r="AE12" t="n">
-        <v>1324714.201294427</v>
+        <v>1627279.986730761</v>
       </c>
       <c r="AF12" t="n">
         <v>4.075713045768179e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.4675925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>1198285.337170945</v>
+        <v>1471974.668698983</v>
       </c>
     </row>
     <row r="13">
@@ -49434,28 +49434,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>958.4542726365135</v>
+        <v>1179.588631412243</v>
       </c>
       <c r="AB13" t="n">
-        <v>1311.399419839531</v>
+        <v>1613.965205275866</v>
       </c>
       <c r="AC13" t="n">
-        <v>1186.241299770691</v>
+        <v>1459.930631298729</v>
       </c>
       <c r="AD13" t="n">
-        <v>958454.2726365135</v>
+        <v>1179588.631412243</v>
       </c>
       <c r="AE13" t="n">
-        <v>1311399.419839531</v>
+        <v>1613965.205275866</v>
       </c>
       <c r="AF13" t="n">
         <v>4.096226278017896e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.24768518518518</v>
       </c>
       <c r="AH13" t="n">
-        <v>1186241.299770691</v>
+        <v>1459930.631298729</v>
       </c>
     </row>
     <row r="14">
@@ -49540,28 +49540,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>950.2466916686628</v>
+        <v>1161.828946089737</v>
       </c>
       <c r="AB14" t="n">
-        <v>1300.169445466401</v>
+        <v>1589.665620315593</v>
       </c>
       <c r="AC14" t="n">
-        <v>1176.083098390364</v>
+        <v>1437.950164622383</v>
       </c>
       <c r="AD14" t="n">
-        <v>950246.6916686628</v>
+        <v>1161828.946089737</v>
       </c>
       <c r="AE14" t="n">
-        <v>1300169.445466401</v>
+        <v>1589665.620315593</v>
       </c>
       <c r="AF14" t="n">
         <v>4.107657315836441e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.12037037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>1176083.098390364</v>
+        <v>1437950.164622383</v>
       </c>
     </row>
     <row r="15">
@@ -49646,28 +49646,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>947.0523667380439</v>
+        <v>1158.634621159118</v>
       </c>
       <c r="AB15" t="n">
-        <v>1295.798829172658</v>
+        <v>1585.29500402185</v>
       </c>
       <c r="AC15" t="n">
-        <v>1172.129607581498</v>
+        <v>1433.996673813517</v>
       </c>
       <c r="AD15" t="n">
-        <v>947052.366738044</v>
+        <v>1158634.621159118</v>
       </c>
       <c r="AE15" t="n">
-        <v>1295798.829172658</v>
+        <v>1585295.00402185</v>
       </c>
       <c r="AF15" t="n">
         <v>4.109849569664655e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.09722222222223</v>
       </c>
       <c r="AH15" t="n">
-        <v>1172129.607581498</v>
+        <v>1433996.673813517</v>
       </c>
     </row>
     <row r="16">
@@ -49752,28 +49752,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>949.3894662653515</v>
+        <v>1160.971720686425</v>
       </c>
       <c r="AB16" t="n">
-        <v>1298.996551851474</v>
+        <v>1588.492726700667</v>
       </c>
       <c r="AC16" t="n">
-        <v>1175.02214409588</v>
+        <v>1436.889210327899</v>
       </c>
       <c r="AD16" t="n">
-        <v>949389.4662653515</v>
+        <v>1160971.720686425</v>
       </c>
       <c r="AE16" t="n">
-        <v>1298996.551851474</v>
+        <v>1588492.726700667</v>
       </c>
       <c r="AF16" t="n">
         <v>4.109066621868864e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.1087962962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>1175022.14409588</v>
+        <v>1436889.210327899</v>
       </c>
     </row>
   </sheetData>
@@ -50049,28 +50049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2412.624526757613</v>
+        <v>2801.976193249524</v>
       </c>
       <c r="AB2" t="n">
-        <v>3301.059314992094</v>
+        <v>3833.787442069594</v>
       </c>
       <c r="AC2" t="n">
-        <v>2986.010847034971</v>
+        <v>3467.896149352796</v>
       </c>
       <c r="AD2" t="n">
-        <v>2412624.526757613</v>
+        <v>2801976.193249525</v>
       </c>
       <c r="AE2" t="n">
-        <v>3301059.314992094</v>
+        <v>3833787.442069594</v>
       </c>
       <c r="AF2" t="n">
         <v>2.072318212367026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.02777777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>2986010.847034971</v>
+        <v>3467896.149352796</v>
       </c>
     </row>
     <row r="3">
@@ -50155,28 +50155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1547.360837221917</v>
+        <v>1839.382370173153</v>
       </c>
       <c r="AB3" t="n">
-        <v>2117.167362229281</v>
+        <v>2516.724106693954</v>
       </c>
       <c r="AC3" t="n">
-        <v>1915.107880641174</v>
+        <v>2276.531490195551</v>
       </c>
       <c r="AD3" t="n">
-        <v>1547360.837221917</v>
+        <v>1839382.370173153</v>
       </c>
       <c r="AE3" t="n">
-        <v>2117167.362229282</v>
+        <v>2516724.106693954</v>
       </c>
       <c r="AF3" t="n">
         <v>2.840771046681195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.65046296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>1915107.880641174</v>
+        <v>2276531.490195551</v>
       </c>
     </row>
     <row r="4">
@@ -50261,28 +50261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1355.258837915221</v>
+        <v>1618.004064679873</v>
       </c>
       <c r="AB4" t="n">
-        <v>1854.324931835782</v>
+        <v>2213.824542596496</v>
       </c>
       <c r="AC4" t="n">
-        <v>1677.350762902762</v>
+        <v>2002.540235373346</v>
       </c>
       <c r="AD4" t="n">
-        <v>1355258.837915221</v>
+        <v>1618004.064679873</v>
       </c>
       <c r="AE4" t="n">
-        <v>1854324.931835782</v>
+        <v>2213824.542596496</v>
       </c>
       <c r="AF4" t="n">
         <v>3.136917572591628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.21064814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>1677350.762902762</v>
+        <v>2002540.235373346</v>
       </c>
     </row>
     <row r="5">
@@ -50367,28 +50367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1262.020557058228</v>
+        <v>1515.096774837625</v>
       </c>
       <c r="AB5" t="n">
-        <v>1726.752202584601</v>
+        <v>2073.022248685118</v>
       </c>
       <c r="AC5" t="n">
-        <v>1561.953395881864</v>
+        <v>1875.175914775609</v>
       </c>
       <c r="AD5" t="n">
-        <v>1262020.557058228</v>
+        <v>1515096.774837625</v>
       </c>
       <c r="AE5" t="n">
-        <v>1726752.202584601</v>
+        <v>2073022.248685118</v>
       </c>
       <c r="AF5" t="n">
         <v>3.294966148531404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.69907407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>1561953.395881864</v>
+        <v>1875175.914775609</v>
       </c>
     </row>
     <row r="6">
@@ -50473,28 +50473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1214.215473625407</v>
+        <v>1457.488042804139</v>
       </c>
       <c r="AB6" t="n">
-        <v>1661.343178420381</v>
+        <v>1994.199439999017</v>
       </c>
       <c r="AC6" t="n">
-        <v>1502.786917181735</v>
+        <v>1803.875844322003</v>
       </c>
       <c r="AD6" t="n">
-        <v>1214215.473625407</v>
+        <v>1457488.042804139</v>
       </c>
       <c r="AE6" t="n">
-        <v>1661343.178420381</v>
+        <v>1994199.439999017</v>
       </c>
       <c r="AF6" t="n">
         <v>3.393728821768614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.25231481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>1502786.917181735</v>
+        <v>1803875.844322003</v>
       </c>
     </row>
     <row r="7">
@@ -50579,28 +50579,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1178.811777463076</v>
+        <v>1412.382183267629</v>
       </c>
       <c r="AB7" t="n">
-        <v>1612.902279430238</v>
+        <v>1932.483613051083</v>
       </c>
       <c r="AC7" t="n">
-        <v>1458.969149603982</v>
+        <v>1748.050089279273</v>
       </c>
       <c r="AD7" t="n">
-        <v>1178811.777463076</v>
+        <v>1412382.183267629</v>
       </c>
       <c r="AE7" t="n">
-        <v>1612902.279430238</v>
+        <v>1932483.613051083</v>
       </c>
       <c r="AF7" t="n">
         <v>3.46079688353715e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.32638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1458969.149603982</v>
+        <v>1748050.089279273</v>
       </c>
     </row>
     <row r="8">
@@ -50685,28 +50685,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1150.707377692675</v>
+        <v>1384.345103304933</v>
       </c>
       <c r="AB8" t="n">
-        <v>1574.448599785765</v>
+        <v>1894.122043337451</v>
       </c>
       <c r="AC8" t="n">
-        <v>1424.185435174699</v>
+        <v>1713.349693938309</v>
       </c>
       <c r="AD8" t="n">
-        <v>1150707.377692675</v>
+        <v>1384345.103304933</v>
       </c>
       <c r="AE8" t="n">
-        <v>1574448.599785765</v>
+        <v>1894122.043337451</v>
       </c>
       <c r="AF8" t="n">
         <v>3.508621788342561e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.67824074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>1424185.435174699</v>
+        <v>1713349.693938309</v>
       </c>
     </row>
     <row r="9">
@@ -50791,28 +50791,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1134.67481757677</v>
+        <v>1358.543060007144</v>
       </c>
       <c r="AB9" t="n">
-        <v>1552.51214372855</v>
+        <v>1858.818549391604</v>
       </c>
       <c r="AC9" t="n">
-        <v>1404.342563695576</v>
+        <v>1681.415515905888</v>
       </c>
       <c r="AD9" t="n">
-        <v>1134674.81757677</v>
+        <v>1358543.060007144</v>
       </c>
       <c r="AE9" t="n">
-        <v>1552512.14372855</v>
+        <v>1858818.549391604</v>
       </c>
       <c r="AF9" t="n">
         <v>3.548947521684402e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>47</v>
+        <v>46.14583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1404342.563695576</v>
+        <v>1681415.515905888</v>
       </c>
     </row>
     <row r="10">
@@ -50897,28 +50897,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1113.006600200836</v>
+        <v>1346.610160394313</v>
       </c>
       <c r="AB10" t="n">
-        <v>1522.864732780513</v>
+        <v>1842.491429698952</v>
       </c>
       <c r="AC10" t="n">
-        <v>1377.524660038016</v>
+        <v>1666.646633601446</v>
       </c>
       <c r="AD10" t="n">
-        <v>1113006.600200836</v>
+        <v>1346610.160394313</v>
       </c>
       <c r="AE10" t="n">
-        <v>1522864.732780513</v>
+        <v>1842491.429698952</v>
       </c>
       <c r="AF10" t="n">
         <v>3.578378232333886e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.76388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1377524.660038017</v>
+        <v>1666646.633601446</v>
       </c>
     </row>
     <row r="11">
@@ -51003,28 +51003,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1102.037952031076</v>
+        <v>1325.872029042668</v>
       </c>
       <c r="AB11" t="n">
-        <v>1507.856944452041</v>
+        <v>1814.116603481848</v>
       </c>
       <c r="AC11" t="n">
-        <v>1363.949193964051</v>
+        <v>1640.979860974184</v>
       </c>
       <c r="AD11" t="n">
-        <v>1102037.952031075</v>
+        <v>1325872.029042668</v>
       </c>
       <c r="AE11" t="n">
-        <v>1507856.944452041</v>
+        <v>1814116.603481848</v>
       </c>
       <c r="AF11" t="n">
         <v>3.602432178537791e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>46</v>
+        <v>45.46296296296296</v>
       </c>
       <c r="AH11" t="n">
-        <v>1363949.193964051</v>
+        <v>1640979.860974184</v>
       </c>
     </row>
     <row r="12">
@@ -51109,28 +51109,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1093.472026163179</v>
+        <v>1317.306103174772</v>
       </c>
       <c r="AB12" t="n">
-        <v>1496.136666777607</v>
+        <v>1802.396325807414</v>
       </c>
       <c r="AC12" t="n">
-        <v>1353.347483141352</v>
+        <v>1630.378150151484</v>
       </c>
       <c r="AD12" t="n">
-        <v>1093472.026163179</v>
+        <v>1317306.103174772</v>
       </c>
       <c r="AE12" t="n">
-        <v>1496136.666777607</v>
+        <v>1802396.325807414</v>
       </c>
       <c r="AF12" t="n">
         <v>3.619977409886522e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>46</v>
+        <v>45.24305555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1353347.483141352</v>
+        <v>1630378.150151484</v>
       </c>
     </row>
     <row r="13">
@@ -51215,28 +51215,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1084.670567512185</v>
+        <v>1308.504644523778</v>
       </c>
       <c r="AB13" t="n">
-        <v>1484.094122758366</v>
+        <v>1790.353781788172</v>
       </c>
       <c r="AC13" t="n">
-        <v>1342.45426262149</v>
+        <v>1619.484929631623</v>
       </c>
       <c r="AD13" t="n">
-        <v>1084670.567512185</v>
+        <v>1308504.644523778</v>
       </c>
       <c r="AE13" t="n">
-        <v>1484094.122758366</v>
+        <v>1790353.781788172</v>
       </c>
       <c r="AF13" t="n">
         <v>3.636249197024458e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>46</v>
+        <v>45.03472222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1342454.26262149</v>
+        <v>1619484.929631623</v>
       </c>
     </row>
     <row r="14">
@@ -51321,28 +51321,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1067.882813305462</v>
+        <v>1301.452208080158</v>
       </c>
       <c r="AB14" t="n">
-        <v>1461.124376829283</v>
+        <v>1780.704327114474</v>
       </c>
       <c r="AC14" t="n">
-        <v>1321.676717005638</v>
+        <v>1610.756405368888</v>
       </c>
       <c r="AD14" t="n">
-        <v>1067882.813305462</v>
+        <v>1301452.208080158</v>
       </c>
       <c r="AE14" t="n">
-        <v>1461124.376829283</v>
+        <v>1780704.327114474</v>
       </c>
       <c r="AF14" t="n">
         <v>3.64827617012641e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.88425925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>1321676.717005638</v>
+        <v>1610756.405368888</v>
       </c>
     </row>
     <row r="15">
@@ -51427,28 +51427,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1060.246407374019</v>
+        <v>1284.147804193316</v>
       </c>
       <c r="AB15" t="n">
-        <v>1450.675909339429</v>
+        <v>1757.027678300076</v>
       </c>
       <c r="AC15" t="n">
-        <v>1312.225436588499</v>
+        <v>1589.339422686951</v>
       </c>
       <c r="AD15" t="n">
-        <v>1060246.407374019</v>
+        <v>1284147.804193316</v>
       </c>
       <c r="AE15" t="n">
-        <v>1450675.909339429</v>
+        <v>1757027.678300076</v>
       </c>
       <c r="AF15" t="n">
         <v>3.660869118433161e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>44.7337962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1312225.436588499</v>
+        <v>1589339.422686951</v>
       </c>
     </row>
     <row r="16">
@@ -51533,28 +51533,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1052.170262137698</v>
+        <v>1276.071658956995</v>
       </c>
       <c r="AB16" t="n">
-        <v>1439.625771132713</v>
+        <v>1745.97754009336</v>
       </c>
       <c r="AC16" t="n">
-        <v>1302.229908063266</v>
+        <v>1579.343894161718</v>
       </c>
       <c r="AD16" t="n">
-        <v>1052170.262137698</v>
+        <v>1276071.658956995</v>
       </c>
       <c r="AE16" t="n">
-        <v>1439625.771132713</v>
+        <v>1745977.54009336</v>
       </c>
       <c r="AF16" t="n">
         <v>3.674594017149507e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>45</v>
+        <v>44.57175925925926</v>
       </c>
       <c r="AH16" t="n">
-        <v>1302229.908063266</v>
+        <v>1579343.894161718</v>
       </c>
     </row>
     <row r="17">
@@ -51639,28 +51639,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1047.466221055045</v>
+        <v>1271.367617874343</v>
       </c>
       <c r="AB17" t="n">
-        <v>1433.189494595782</v>
+        <v>1739.541263556429</v>
       </c>
       <c r="AC17" t="n">
-        <v>1296.407900725648</v>
+        <v>1573.5218868241</v>
       </c>
       <c r="AD17" t="n">
-        <v>1047466.221055045</v>
+        <v>1271367.617874343</v>
       </c>
       <c r="AE17" t="n">
-        <v>1433189.494595781</v>
+        <v>1739541.263556429</v>
       </c>
       <c r="AF17" t="n">
         <v>3.679263312589088e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>45</v>
+        <v>44.51388888888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>1296407.900725648</v>
+        <v>1573521.8868241</v>
       </c>
     </row>
     <row r="18">
@@ -51745,28 +51745,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1040.055331935058</v>
+        <v>1263.855243527871</v>
       </c>
       <c r="AB18" t="n">
-        <v>1423.049589156462</v>
+        <v>1729.26250155302</v>
       </c>
       <c r="AC18" t="n">
-        <v>1287.235733630011</v>
+        <v>1564.224115439963</v>
       </c>
       <c r="AD18" t="n">
-        <v>1040055.331935058</v>
+        <v>1263855.243527871</v>
       </c>
       <c r="AE18" t="n">
-        <v>1423049.589156462</v>
+        <v>1729262.50155302</v>
       </c>
       <c r="AF18" t="n">
         <v>3.685630533643063e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>45</v>
+        <v>44.43287037037037</v>
       </c>
       <c r="AH18" t="n">
-        <v>1287235.733630011</v>
+        <v>1564224.115439964</v>
       </c>
     </row>
     <row r="19">
@@ -51851,28 +51851,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1032.862042827236</v>
+        <v>1256.661954420048</v>
       </c>
       <c r="AB19" t="n">
-        <v>1413.207413653621</v>
+        <v>1719.420326050179</v>
       </c>
       <c r="AC19" t="n">
-        <v>1278.332881543581</v>
+        <v>1555.321263353534</v>
       </c>
       <c r="AD19" t="n">
-        <v>1032862.042827236</v>
+        <v>1256661.954420048</v>
       </c>
       <c r="AE19" t="n">
-        <v>1413207.413653621</v>
+        <v>1719420.32605018</v>
       </c>
       <c r="AF19" t="n">
         <v>3.697374519142617e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>45</v>
+        <v>44.29398148148149</v>
       </c>
       <c r="AH19" t="n">
-        <v>1278332.881543581</v>
+        <v>1555321.263353534</v>
       </c>
     </row>
     <row r="20">
@@ -51957,28 +51957,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1026.844139333948</v>
+        <v>1240.976052971362</v>
       </c>
       <c r="AB20" t="n">
-        <v>1404.97345260294</v>
+        <v>1697.958183674955</v>
       </c>
       <c r="AC20" t="n">
-        <v>1270.884758179141</v>
+        <v>1535.907437724295</v>
       </c>
       <c r="AD20" t="n">
-        <v>1026844.139333948</v>
+        <v>1240976.052971362</v>
       </c>
       <c r="AE20" t="n">
-        <v>1404973.45260294</v>
+        <v>1697958.183674955</v>
       </c>
       <c r="AF20" t="n">
         <v>3.704732196804988e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>45</v>
+        <v>44.20138888888889</v>
       </c>
       <c r="AH20" t="n">
-        <v>1270884.758179141</v>
+        <v>1535907.437724295</v>
       </c>
     </row>
     <row r="21">
@@ -52063,28 +52063,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1024.442452517646</v>
+        <v>1248.242364110458</v>
       </c>
       <c r="AB21" t="n">
-        <v>1401.687358745931</v>
+        <v>1707.900271142489</v>
       </c>
       <c r="AC21" t="n">
-        <v>1267.912284507782</v>
+        <v>1544.900666317735</v>
       </c>
       <c r="AD21" t="n">
-        <v>1024442.452517646</v>
+        <v>1248242.364110458</v>
       </c>
       <c r="AE21" t="n">
-        <v>1401687.358745931</v>
+        <v>1707900.271142489</v>
       </c>
       <c r="AF21" t="n">
         <v>3.702751283588195e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>45</v>
+        <v>44.22453703703704</v>
       </c>
       <c r="AH21" t="n">
-        <v>1267912.284507782</v>
+        <v>1544900.666317735</v>
       </c>
     </row>
     <row r="22">
@@ -52169,28 +52169,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1022.726303620883</v>
+        <v>1236.858217258296</v>
       </c>
       <c r="AB22" t="n">
-        <v>1399.339248114233</v>
+        <v>1692.323979186249</v>
       </c>
       <c r="AC22" t="n">
-        <v>1265.78827425918</v>
+        <v>1530.810953804335</v>
       </c>
       <c r="AD22" t="n">
-        <v>1022726.303620883</v>
+        <v>1236858.217258296</v>
       </c>
       <c r="AE22" t="n">
-        <v>1399339.248114233</v>
+        <v>1692323.979186248</v>
       </c>
       <c r="AF22" t="n">
         <v>3.710250455051766e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>44.14351851851853</v>
       </c>
       <c r="AH22" t="n">
-        <v>1265788.27425918</v>
+        <v>1530810.953804335</v>
       </c>
     </row>
     <row r="23">
@@ -52275,28 +52275,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1025.131724870299</v>
+        <v>1239.263638507713</v>
       </c>
       <c r="AB23" t="n">
-        <v>1402.630451587381</v>
+        <v>1695.615182659396</v>
       </c>
       <c r="AC23" t="n">
-        <v>1268.765369892084</v>
+        <v>1533.788049437238</v>
       </c>
       <c r="AD23" t="n">
-        <v>1025131.724870299</v>
+        <v>1239263.638507713</v>
       </c>
       <c r="AE23" t="n">
-        <v>1402630.451587381</v>
+        <v>1695615.182659396</v>
       </c>
       <c r="AF23" t="n">
         <v>3.710674936455364e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>45</v>
+        <v>44.13194444444445</v>
       </c>
       <c r="AH23" t="n">
-        <v>1268765.369892084</v>
+        <v>1533788.049437238</v>
       </c>
     </row>
   </sheetData>
@@ -52572,28 +52572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>668.1029462718136</v>
+        <v>884.7476910498009</v>
       </c>
       <c r="AB2" t="n">
-        <v>914.1279257108713</v>
+        <v>1210.550823207705</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.8848394676268</v>
+        <v>1095.017551659512</v>
       </c>
       <c r="AD2" t="n">
-        <v>668102.9462718136</v>
+        <v>884747.6910498008</v>
       </c>
       <c r="AE2" t="n">
-        <v>914127.9257108714</v>
+        <v>1210550.823207705</v>
       </c>
       <c r="AF2" t="n">
         <v>8.263089360290499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.0787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>826884.8394676268</v>
+        <v>1095017.551659512</v>
       </c>
     </row>
   </sheetData>
@@ -52869,28 +52869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1314.174357813013</v>
+        <v>1606.808205232621</v>
       </c>
       <c r="AB2" t="n">
-        <v>1798.111333640599</v>
+        <v>2198.505873774307</v>
       </c>
       <c r="AC2" t="n">
-        <v>1626.502111623047</v>
+        <v>1988.683558803659</v>
       </c>
       <c r="AD2" t="n">
-        <v>1314174.357813013</v>
+        <v>1606808.205232621</v>
       </c>
       <c r="AE2" t="n">
-        <v>1798111.333640599</v>
+        <v>2198505.873774307</v>
       </c>
       <c r="AF2" t="n">
         <v>3.679331237387253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.86574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>1626502.111623047</v>
+        <v>1988683.558803659</v>
       </c>
     </row>
     <row r="3">
@@ -52975,28 +52975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1033.661796551181</v>
+        <v>1279.114270086997</v>
       </c>
       <c r="AB3" t="n">
-        <v>1414.301671981367</v>
+        <v>1750.140574871959</v>
       </c>
       <c r="AC3" t="n">
-        <v>1279.322705392328</v>
+        <v>1583.109614743902</v>
       </c>
       <c r="AD3" t="n">
-        <v>1033661.796551181</v>
+        <v>1279114.270086997</v>
       </c>
       <c r="AE3" t="n">
-        <v>1414301.671981367</v>
+        <v>1750140.574871959</v>
       </c>
       <c r="AF3" t="n">
         <v>4.363135537342139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.6412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1279322.705392328</v>
+        <v>1583109.614743902</v>
       </c>
     </row>
     <row r="4">
@@ -53081,28 +53081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>948.3316937055311</v>
+        <v>1184.306893962052</v>
       </c>
       <c r="AB4" t="n">
-        <v>1297.549260769496</v>
+        <v>1620.420940251567</v>
       </c>
       <c r="AC4" t="n">
-        <v>1173.71298044348</v>
+        <v>1465.770239989031</v>
       </c>
       <c r="AD4" t="n">
-        <v>948331.6937055311</v>
+        <v>1184306.893962052</v>
       </c>
       <c r="AE4" t="n">
-        <v>1297549.260769496</v>
+        <v>1620420.940251567</v>
       </c>
       <c r="AF4" t="n">
         <v>4.609784160040699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.99074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1173712.98044348</v>
+        <v>1465770.239989031</v>
       </c>
     </row>
     <row r="5">
@@ -53187,28 +53187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>908.4284556882473</v>
+        <v>1134.994713503034</v>
       </c>
       <c r="AB5" t="n">
-        <v>1242.95189010763</v>
+        <v>1552.949839447677</v>
       </c>
       <c r="AC5" t="n">
-        <v>1124.326306209692</v>
+        <v>1404.738486349579</v>
       </c>
       <c r="AD5" t="n">
-        <v>908428.4556882472</v>
+        <v>1134994.713503034</v>
       </c>
       <c r="AE5" t="n">
-        <v>1242951.89010763</v>
+        <v>1552949.839447677</v>
       </c>
       <c r="AF5" t="n">
         <v>4.737225519720305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.71759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>1124326.306209692</v>
+        <v>1404738.486349578</v>
       </c>
     </row>
     <row r="6">
@@ -53293,28 +53293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>887.6746473691422</v>
+        <v>1104.764642934491</v>
       </c>
       <c r="AB6" t="n">
-        <v>1214.555613972027</v>
+        <v>1511.587723239207</v>
       </c>
       <c r="AC6" t="n">
-        <v>1098.640130814047</v>
+        <v>1367.323912459951</v>
       </c>
       <c r="AD6" t="n">
-        <v>887674.6473691423</v>
+        <v>1104764.642934491</v>
       </c>
       <c r="AE6" t="n">
-        <v>1214555.613972027</v>
+        <v>1511587.723239207</v>
       </c>
       <c r="AF6" t="n">
         <v>4.811519528226624e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.01157407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>1098640.130814047</v>
+        <v>1367323.912459951</v>
       </c>
     </row>
     <row r="7">
@@ -53399,28 +53399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>861.1990202139991</v>
+        <v>1078.356335587052</v>
       </c>
       <c r="AB7" t="n">
-        <v>1178.330492876125</v>
+        <v>1475.454712074147</v>
       </c>
       <c r="AC7" t="n">
-        <v>1065.872284433261</v>
+        <v>1334.639385167484</v>
       </c>
       <c r="AD7" t="n">
-        <v>861199.0202139991</v>
+        <v>1078356.335587052</v>
       </c>
       <c r="AE7" t="n">
-        <v>1178330.492876125</v>
+        <v>1475454.712074147</v>
       </c>
       <c r="AF7" t="n">
         <v>4.864105463718502e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.52546296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>1065872.284433261</v>
+        <v>1334639.385167484</v>
       </c>
     </row>
     <row r="8">
@@ -53505,28 +53505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>846.546301081095</v>
+        <v>1054.22735420471</v>
       </c>
       <c r="AB8" t="n">
-        <v>1158.28199612614</v>
+        <v>1442.440375251296</v>
       </c>
       <c r="AC8" t="n">
-        <v>1047.737188074853</v>
+        <v>1304.775890315093</v>
       </c>
       <c r="AD8" t="n">
-        <v>846546.301081095</v>
+        <v>1054227.35420471</v>
       </c>
       <c r="AE8" t="n">
-        <v>1158281.99612614</v>
+        <v>1442440.375251296</v>
       </c>
       <c r="AF8" t="n">
         <v>4.903965977098466e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1047737.188074853</v>
+        <v>1304775.890315093</v>
       </c>
     </row>
     <row r="9">
@@ -53611,28 +53611,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>848.9803409125518</v>
+        <v>1056.661394036167</v>
       </c>
       <c r="AB9" t="n">
-        <v>1161.612356805798</v>
+        <v>1445.770735930954</v>
       </c>
       <c r="AC9" t="n">
-        <v>1050.749703805435</v>
+        <v>1307.788406045675</v>
       </c>
       <c r="AD9" t="n">
-        <v>848980.3409125519</v>
+        <v>1056661.394036167</v>
       </c>
       <c r="AE9" t="n">
-        <v>1161612.356805798</v>
+        <v>1445770.735930954</v>
       </c>
       <c r="AF9" t="n">
         <v>4.899474651647203e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.21296296296297</v>
       </c>
       <c r="AH9" t="n">
-        <v>1050749.703805435</v>
+        <v>1307788.406045675</v>
       </c>
     </row>
   </sheetData>
@@ -53908,28 +53908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1626.90212856492</v>
+        <v>1951.667862578732</v>
       </c>
       <c r="AB2" t="n">
-        <v>2225.999266158891</v>
+        <v>2670.358071089578</v>
       </c>
       <c r="AC2" t="n">
-        <v>2013.553020406277</v>
+        <v>2415.50284465588</v>
       </c>
       <c r="AD2" t="n">
-        <v>1626902.12856492</v>
+        <v>1951667.862578732</v>
       </c>
       <c r="AE2" t="n">
-        <v>2225999.266158891</v>
+        <v>2670358.071089578</v>
       </c>
       <c r="AF2" t="n">
         <v>2.97327356955936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.86111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2013553.020406277</v>
+        <v>2415502.84465588</v>
       </c>
     </row>
     <row r="3">
@@ -54014,28 +54014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1202.972429531156</v>
+        <v>1451.333756400628</v>
       </c>
       <c r="AB3" t="n">
-        <v>1645.959949482527</v>
+        <v>1985.778873833779</v>
       </c>
       <c r="AC3" t="n">
-        <v>1488.871842023212</v>
+        <v>1796.258925173237</v>
       </c>
       <c r="AD3" t="n">
-        <v>1202972.429531156</v>
+        <v>1451333.756400628</v>
       </c>
       <c r="AE3" t="n">
-        <v>1645959.949482527</v>
+        <v>1985778.873833779</v>
       </c>
       <c r="AF3" t="n">
         <v>3.700969903038357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.10648148148149</v>
       </c>
       <c r="AH3" t="n">
-        <v>1488871.842023212</v>
+        <v>1796258.925173237</v>
       </c>
     </row>
     <row r="4">
@@ -54120,28 +54120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1085.930168406583</v>
+        <v>1324.769701715857</v>
       </c>
       <c r="AB4" t="n">
-        <v>1485.81756427175</v>
+        <v>1812.608350602054</v>
       </c>
       <c r="AC4" t="n">
-        <v>1344.013221295702</v>
+        <v>1639.615553632391</v>
       </c>
       <c r="AD4" t="n">
-        <v>1085930.168406583</v>
+        <v>1324769.701715857</v>
       </c>
       <c r="AE4" t="n">
-        <v>1485817.56427175</v>
+        <v>1812608.350602054</v>
       </c>
       <c r="AF4" t="n">
         <v>3.964586939805879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1344013.221295702</v>
+        <v>1639615.553632391</v>
       </c>
     </row>
     <row r="5">
@@ -54226,28 +54226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1038.274739137519</v>
+        <v>1267.492004689966</v>
       </c>
       <c r="AB5" t="n">
-        <v>1420.613303536658</v>
+        <v>1734.238478617578</v>
       </c>
       <c r="AC5" t="n">
-        <v>1285.031963690413</v>
+        <v>1568.725192237308</v>
       </c>
       <c r="AD5" t="n">
-        <v>1038274.739137519</v>
+        <v>1267492.004689966</v>
       </c>
       <c r="AE5" t="n">
-        <v>1420613.303536658</v>
+        <v>1734238.478617579</v>
       </c>
       <c r="AF5" t="n">
         <v>4.098894987615376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.04861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1285031.963690413</v>
+        <v>1568725.192237308</v>
       </c>
     </row>
     <row r="6">
@@ -54332,28 +54332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1002.249858145652</v>
+        <v>1221.946341167758</v>
       </c>
       <c r="AB6" t="n">
-        <v>1371.322472058004</v>
+        <v>1671.92089245363</v>
       </c>
       <c r="AC6" t="n">
-        <v>1240.445379987965</v>
+        <v>1512.355109033565</v>
       </c>
       <c r="AD6" t="n">
-        <v>1002249.858145652</v>
+        <v>1221946.341167758</v>
       </c>
       <c r="AE6" t="n">
-        <v>1371322.472058004</v>
+        <v>1671920.89245363</v>
       </c>
       <c r="AF6" t="n">
         <v>4.189877858712131e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.0300925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1240445.379987965</v>
+        <v>1512355.109033565</v>
       </c>
     </row>
     <row r="7">
@@ -54438,28 +54438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>976.0323881626147</v>
+        <v>1195.69470576594</v>
       </c>
       <c r="AB7" t="n">
-        <v>1335.450572994068</v>
+        <v>1636.002246756446</v>
       </c>
       <c r="AC7" t="n">
-        <v>1207.997044624165</v>
+        <v>1479.864488469585</v>
       </c>
       <c r="AD7" t="n">
-        <v>976032.3881626147</v>
+        <v>1195694.70576594</v>
       </c>
       <c r="AE7" t="n">
-        <v>1335450.572994068</v>
+        <v>1636002.246756446</v>
       </c>
       <c r="AF7" t="n">
         <v>4.240534988407028e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.48611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1207997.044624164</v>
+        <v>1479864.488469585</v>
       </c>
     </row>
     <row r="8">
@@ -54544,28 +54544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>960.7748981101422</v>
+        <v>1180.437215713467</v>
       </c>
       <c r="AB8" t="n">
-        <v>1314.57460199132</v>
+        <v>1615.126275753698</v>
       </c>
       <c r="AC8" t="n">
-        <v>1189.113446994309</v>
+        <v>1460.98089083973</v>
       </c>
       <c r="AD8" t="n">
-        <v>960774.8981101422</v>
+        <v>1180437.215713467</v>
       </c>
       <c r="AE8" t="n">
-        <v>1314574.60199132</v>
+        <v>1615126.275753698</v>
       </c>
       <c r="AF8" t="n">
         <v>4.283360259234622e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.02314814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>1189113.446994309</v>
+        <v>1460980.89083973</v>
       </c>
     </row>
     <row r="9">
@@ -54650,28 +54650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>936.8227747984815</v>
+        <v>1156.552412209511</v>
       </c>
       <c r="AB9" t="n">
-        <v>1281.802250183203</v>
+        <v>1582.446033876422</v>
       </c>
       <c r="AC9" t="n">
-        <v>1159.468842446474</v>
+        <v>1431.419605380214</v>
       </c>
       <c r="AD9" t="n">
-        <v>936822.7747984815</v>
+        <v>1156552.412209511</v>
       </c>
       <c r="AE9" t="n">
-        <v>1281802.250183203</v>
+        <v>1582446.033876422</v>
       </c>
       <c r="AF9" t="n">
         <v>4.320853200620647e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.62962962962964</v>
       </c>
       <c r="AH9" t="n">
-        <v>1159468.842446474</v>
+        <v>1431419.605380214</v>
       </c>
     </row>
     <row r="10">
@@ -54756,28 +54756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>925.2007303121832</v>
+        <v>1144.828882496728</v>
       </c>
       <c r="AB10" t="n">
-        <v>1265.900456188634</v>
+        <v>1566.405383317764</v>
       </c>
       <c r="AC10" t="n">
-        <v>1145.084693352439</v>
+        <v>1416.909851997679</v>
       </c>
       <c r="AD10" t="n">
-        <v>925200.7303121832</v>
+        <v>1144828.882496728</v>
       </c>
       <c r="AE10" t="n">
-        <v>1265900.456188634</v>
+        <v>1566405.383317764</v>
       </c>
       <c r="AF10" t="n">
         <v>4.346015130173046e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.37500000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>1145084.693352439</v>
+        <v>1416909.851997679</v>
       </c>
     </row>
     <row r="11">
@@ -54862,28 +54862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>914.7778647142363</v>
+        <v>1124.91939978722</v>
       </c>
       <c r="AB11" t="n">
-        <v>1251.639431653145</v>
+        <v>1539.164350730229</v>
       </c>
       <c r="AC11" t="n">
-        <v>1132.184720983144</v>
+        <v>1392.26866532727</v>
       </c>
       <c r="AD11" t="n">
-        <v>914777.8647142363</v>
+        <v>1124919.39978722</v>
       </c>
       <c r="AE11" t="n">
-        <v>1251639.431653145</v>
+        <v>1539164.350730229</v>
       </c>
       <c r="AF11" t="n">
         <v>4.363178565563094e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.20138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>1132184.720983144</v>
+        <v>1392268.66532727</v>
       </c>
     </row>
     <row r="12">
@@ -54968,28 +54968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>908.2037251122468</v>
+        <v>1118.34526018523</v>
       </c>
       <c r="AB12" t="n">
-        <v>1242.644403819133</v>
+        <v>1530.169322896217</v>
       </c>
       <c r="AC12" t="n">
-        <v>1124.048165981009</v>
+        <v>1384.132110325134</v>
       </c>
       <c r="AD12" t="n">
-        <v>908203.7251122468</v>
+        <v>1118345.260185231</v>
       </c>
       <c r="AE12" t="n">
-        <v>1242644.403819133</v>
+        <v>1530169.322896217</v>
       </c>
       <c r="AF12" t="n">
         <v>4.37567621269177e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.07407407407408</v>
       </c>
       <c r="AH12" t="n">
-        <v>1124048.165981009</v>
+        <v>1384132.110325134</v>
       </c>
     </row>
     <row r="13">
@@ -55074,28 +55074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>910.1836949356299</v>
+        <v>1120.325230008614</v>
       </c>
       <c r="AB13" t="n">
-        <v>1245.35348588159</v>
+        <v>1532.878404958674</v>
       </c>
       <c r="AC13" t="n">
-        <v>1126.498697053645</v>
+        <v>1386.582641397771</v>
       </c>
       <c r="AD13" t="n">
-        <v>910183.6949356298</v>
+        <v>1120325.230008614</v>
       </c>
       <c r="AE13" t="n">
-        <v>1245353.48588159</v>
+        <v>1532878.404958674</v>
       </c>
       <c r="AF13" t="n">
         <v>4.37550957739672e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.07407407407408</v>
       </c>
       <c r="AH13" t="n">
-        <v>1126498.697053645</v>
+        <v>1386582.641397771</v>
       </c>
     </row>
   </sheetData>
